--- a/xlsx/_baidu_西游记_intext.xlsx
+++ b/xlsx/_baidu_西游记_intext.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="754">
   <si>
     <t>西游记</t>
   </si>
   <si>
-    <t>https://baike.baidu.com/view/2799511.htm</t>
+    <t>https://baike.baidu.com/view/7213827.htm</t>
   </si>
   <si>
     <t>https://baike.baidu.com/item/%E7%99%BE%E5%BA%A6%E7%99%BE%E7%A7%91%EF%BC%9A%E5%A4%9A%E4%B9%89%E8%AF%8D</t>
@@ -149,6 +149,12 @@
     <t>元代杨景贤创作杂剧</t>
   </si>
   <si>
+    <t>https://baike.baidu.com/item/%E8%A5%BF%E6%B8%B8%E8%AE%B0/4812230#viewPageContent</t>
+  </si>
+  <si>
+    <t>1999年方润南执导动画</t>
+  </si>
+  <si>
     <t>https://baike.baidu.com/item/%E8%A5%BF%E6%B8%B8%E8%AE%B0/6786355#viewPageContent</t>
   </si>
   <si>
@@ -185,12 +191,6 @@
     <t>任天堂FC红白机游戏</t>
   </si>
   <si>
-    <t>https://baike.baidu.com/item/%E8%A5%BF%E6%B8%B8%E8%AE%B0/5723#viewPageContent</t>
-  </si>
-  <si>
-    <t>吴承恩著长篇小说、中国古典四大名著之一</t>
-  </si>
-  <si>
     <t>https://baike.baidu.com/item/%E8%A5%BF%E6%B8%B8%E8%AE%B0/13872514#viewPageContent</t>
   </si>
   <si>
@@ -209,115 +209,43 @@
     <t>少儿版《西游记》</t>
   </si>
   <si>
-    <t>https://baike.baidu.com/item/%E4%B8%AD%E5%9B%BD%E5%9B%BD%E9%99%85%E7%94%B5%E8%A7%86%E6%80%BB%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>中国国际电视总公司</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E6%96%B9%E6%B6%A6%E5%8D%97</t>
-  </si>
-  <si>
-    <t>方润南</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E4%B8%AD%E5%A4%AE%E7%94%B5%E8%A7%86%E5%8F%B0</t>
-  </si>
-  <si>
-    <t>中央电视台</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E4%B9%94%E6%A6%9B/1315348</t>
-  </si>
-  <si>
-    <t>乔榛</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E7%A8%8B%E7%8E%89%E7%8F%A0/2863331</t>
-  </si>
-  <si>
-    <t>程玉珠</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E7%AB%A5%E8%87%AA%E8%8D%A3/683428</t>
-  </si>
-  <si>
-    <t>童自荣</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E8%83%A1%E5%B9%B3%E6%99%BA/6020553</t>
-  </si>
-  <si>
-    <t>胡平智</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E5%90%B4%E6%89%BF%E6%81%A9/74708</t>
+    <t>https://baike.baidu.com/item/%E4%B8%AD%E5%9B%BD/1122445</t>
+  </si>
+  <si>
+    <t>中国</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%A5%9E%E9%AD%94%E5%B0%8F%E8%AF%B4</t>
+  </si>
+  <si>
+    <t>神魔小说</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%90%B4%E7%8E%89%E6%90%A2</t>
+  </si>
+  <si>
+    <t>吴玉搢</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%90%B4%E6%89%BF%E6%81%A9/18713182</t>
   </si>
   <si>
     <t>吴承恩</t>
   </si>
   <si>
-    <t>https://baike.baidu.com/item/%E8%B5%B5%E5%8C%96%E5%8B%87</t>
-  </si>
-  <si>
-    <t>赵化勇</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E5%BC%A0%E4%BC%9F%E8%BF%9B</t>
-  </si>
-  <si>
-    <t>张伟进</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E5%90%B8%E5%BC%95%E5%8A%9B%E5%90%88%E5%94%B1%E7%BB%84</t>
-  </si>
-  <si>
-    <t>吸引力合唱组</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E6%B2%88%E6%99%93%E8%B0%A6</t>
-  </si>
-  <si>
-    <t>沈晓谦</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E4%B9%94%E6%A6%9B</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E7%A8%8B%E7%8E%89%E7%8F%A0</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E5%88%98%E9%A3%8E</t>
-  </si>
-  <si>
-    <t>刘风</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E4%B8%81%E5%BB%BA%E5%8D%8E</t>
-  </si>
-  <si>
-    <t>丁建华</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/CCTV1</t>
-  </si>
-  <si>
-    <t>CCTV1</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E5%AD%99%E6%82%9F%E7%A9%BA</t>
+    <t>https://baike.baidu.com/item/%E5%AD%99%E6%82%9F%E7%A9%BA/5576</t>
   </si>
   <si>
     <t>孙悟空</t>
   </si>
   <si>
-    <t>https://baike.baidu.com/item/%E5%94%90%E5%83%A7</t>
+    <t>https://baike.baidu.com/item/%E5%94%90%E5%83%A7/338052</t>
   </si>
   <si>
     <t>唐僧</t>
   </si>
   <si>
-    <t>https://baike.baidu.com/item/%E7%8C%AA%E5%85%AB%E6%88%92</t>
+    <t>https://baike.baidu.com/item/%E7%8C%AA%E5%85%AB%E6%88%92/769</t>
   </si>
   <si>
     <t>猪八戒</t>
@@ -329,61 +257,388 @@
     <t>沙僧</t>
   </si>
   <si>
+    <t>https://baike.baidu.com/item/%E8%A5%BF%E5%A4%A9/32777</t>
+  </si>
+  <si>
+    <t>西天</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%A6%82%E6%9D%A5%E4%BD%9B%E7%A5%96/623790</t>
+  </si>
+  <si>
+    <t>如来佛祖</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%88%8A%E6%9C%AC</t>
+  </si>
+  <si>
+    <t>刊本</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%8A%84%E6%9C%AC</t>
+  </si>
+  <si>
+    <t>抄本</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E4%B8%96%E7%95%8C%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>世界语</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%AE%BA%E6%96%87</t>
+  </si>
+  <si>
+    <t>论文</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E4%B8%93%E8%91%97</t>
+  </si>
+  <si>
+    <t>专著</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%B5%AA%E6%BC%AB%E4%B8%BB%E4%B9%89%E5%B0%8F%E8%AF%B4</t>
+  </si>
+  <si>
+    <t>浪漫主义小说</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%9B%9B%E5%A4%A7%E5%90%8D%E8%91%97/8376</t>
+  </si>
+  <si>
+    <t>四大名著</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%95%BF%E7%AF%87%E5%B0%8F%E8%AF%B4/7708668</t>
+  </si>
+  <si>
+    <t>长篇小说</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E4%B8%9C%E8%83%9C%E7%A5%9E%E6%B4%B2/10564994</t>
+  </si>
+  <si>
+    <t>东胜神洲</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%8A%B1%E6%9E%9C%E5%B1%B1/3668560</t>
+  </si>
+  <si>
+    <t>花果山</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%B0%B4%E5%B8%98%E6%B4%9E</t>
+  </si>
+  <si>
+    <t>水帘洞</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%8F%A9%E6%8F%90%E7%A5%96%E5%B8%88</t>
+  </si>
+  <si>
+    <t>菩提祖师</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%AD%8B%E6%96%97%E4%BA%91/32470</t>
+  </si>
+  <si>
+    <t>筋斗云</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%A4%A7%E7%A6%B9</t>
+  </si>
+  <si>
+    <t>大禹</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%A6%82%E6%84%8F%E9%87%91%E7%AE%8D%E6%A3%92</t>
+  </si>
+  <si>
+    <t>如意金箍棒</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%98%B4%E6%9B%B9%E5%9C%B0%E5%BA%9C/5178</t>
+  </si>
+  <si>
+    <t>阴曹地府</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%BE%99%E7%8E%8B/28349</t>
+  </si>
+  <si>
+    <t>龙王</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%A7%A6%E5%B9%BF%E7%8E%8B/31812</t>
+  </si>
+  <si>
+    <t>秦广王</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%8E%89%E5%B8%9D</t>
+  </si>
+  <si>
+    <t>玉帝</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%A4%AA%E7%99%BD%E9%87%91%E6%98%9F/1821</t>
+  </si>
+  <si>
+    <t>太白金星</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%BC%BC%E9%A9%AC%E6%B8%A9</t>
+  </si>
+  <si>
+    <t>弼马温</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%BE%A1%E9%A9%AC%E7%9B%91</t>
+  </si>
+  <si>
+    <t>御马监</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%BD%90%E5%A4%A9%E5%A4%A7%E5%9C%A3/29173</t>
+  </si>
+  <si>
+    <t>齐天大圣</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%8E%89%E7%9A%87%E5%A4%A7%E5%B8%9D</t>
+  </si>
+  <si>
+    <t>玉皇大帝</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%9D%8E%E5%A4%A9%E7%8E%8B</t>
+  </si>
+  <si>
+    <t>李天王</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%B7%A8%E7%81%B5%E7%A5%9E</t>
+  </si>
+  <si>
+    <t>巨灵神</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%93%AA%E5%90%92/35250</t>
+  </si>
+  <si>
+    <t>哪吒</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E4%B8%83%E5%A4%A7%E5%9C%A3</t>
+  </si>
+  <si>
+    <t>七大圣</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%9F%A0%E6%A1%83/69102</t>
+  </si>
+  <si>
+    <t>蟠桃</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%8E%8B%E6%AF%8D%E5%A8%98%E5%A8%98</t>
+  </si>
+  <si>
+    <t>王母娘娘</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%A4%AA%E4%B8%8A%E8%80%81%E5%90%9B/53988</t>
+  </si>
+  <si>
+    <t>太上老君</t>
+  </si>
+  <si>
     <t>https://baike.baidu.com/item/%E8%A7%82%E9%9F%B3%E8%8F%A9%E8%90%A8</t>
   </si>
   <si>
     <t>观音菩萨</t>
   </si>
   <si>
-    <t>https://baike.baidu.com/item/%E7%BB%A3%E5%A8%98</t>
-  </si>
-  <si>
-    <t>绣娘</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E4%B8%87%E5%9C%A3%E5%85%AC%E4%B8%BB</t>
-  </si>
-  <si>
-    <t>万圣公主</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E4%B9%8C%E9%B8%A1%E5%9B%BD%E7%8E%8B%E5%90%8E</t>
-  </si>
-  <si>
-    <t>乌鸡国王后</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E7%90%B5%E7%90%B6%E7%B2%BE</t>
-  </si>
-  <si>
-    <t>琵琶精</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E5%8D%8A%E6%88%AA%E8%A7%82%E9%9F%B3</t>
-  </si>
-  <si>
-    <t>半截观音</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E5%AB%A6%E5%A8%A5%E4%BB%99%E5%AD%90</t>
-  </si>
-  <si>
-    <t>嫦娥仙子</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E5%A6%82%E6%9D%A5%E4%BD%9B%E7%A5%96</t>
-  </si>
-  <si>
-    <t>如来佛祖</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E7%AB%A5%E8%87%AA%E8%8D%A3</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E6%9C%B1%E7%B4%AB%E5%9B%BD%E5%9B%BD%E7%8E%8B</t>
-  </si>
-  <si>
-    <t>朱紫国国王</t>
+    <t>https://baike.baidu.com/item/%E4%BA%8C%E9%83%8E%E7%9C%9F%E5%90%9B</t>
+  </si>
+  <si>
+    <t>二郎真君</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E4%BA%8C%E9%83%8E%E7%A5%9E/61156</t>
+  </si>
+  <si>
+    <t>二郎神</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E4%BA%94%E8%A1%8C%E5%B1%B1</t>
+  </si>
+  <si>
+    <t>五行山</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%94%90%E5%A4%AA%E5%AE%97</t>
+  </si>
+  <si>
+    <t>唐太宗</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%B4%9E%E8%A7%82</t>
+  </si>
+  <si>
+    <t>贞观</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%8D%97%E8%B5%A1%E9%83%A8%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>南赡部洲</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%B5%81%E6%B2%99%E6%B2%B3/3525389</t>
+  </si>
+  <si>
+    <t>流沙河</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E4%BA%91%E6%A0%88%E6%B4%9E</t>
+  </si>
+  <si>
+    <t>云栈洞</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%AE%B7%E6%B8%A9%E5%A8%87</t>
+  </si>
+  <si>
+    <t>殷温娇</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%8E%84%E5%A5%98/296302</t>
+  </si>
+  <si>
+    <t>玄奘</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%B3%BE%E6%B2%B3%E9%BE%99%E7%8E%8B/31813</t>
+  </si>
+  <si>
+    <t>泾河龙王</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%B0%B4%E9%99%86%E5%A4%A7%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>水陆大会</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E4%B8%89%E8%97%8F</t>
+  </si>
+  <si>
+    <t>三藏</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%B4%A7%E7%AE%8D%E5%92%92/72231</t>
+  </si>
+  <si>
+    <t>紧箍咒</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%B9%B0%E6%84%81%E6%B6%A7</t>
+  </si>
+  <si>
+    <t>鹰愁涧</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%A4%A9%E8%93%AC%E5%85%83%E5%B8%85/5216</t>
+  </si>
+  <si>
+    <t>天蓬元帅</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%AB%A6%E5%A8%A5/68389</t>
+  </si>
+  <si>
+    <t>嫦娥</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E4%B9%8C%E5%B7%A2%E7%A6%85%E5%B8%88</t>
+  </si>
+  <si>
+    <t>乌巢禅师</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%91%A9%E8%AF%83%E8%88%AC%E8%8B%A5%E6%B3%A2%E7%BD%97%E8%9C%9C%E5%A4%9A%E5%BF%83%E7%BB%8F</t>
+  </si>
+  <si>
+    <t>摩诃般若波罗蜜多心经</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%BB%84%E9%A3%8E%E5%B2%AD</t>
+  </si>
+  <si>
+    <t>黄风岭</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%A1%BB%E5%BC%A5%E5%B1%B1/4036</t>
+  </si>
+  <si>
+    <t>须弥山</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%81%B5%E5%90%89%E8%8F%A9%E8%90%A8</t>
+  </si>
+  <si>
+    <t>灵吉菩萨</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%BB%8E%E5%B1%B1%E8%80%81%E6%AF%8D</t>
+  </si>
+  <si>
+    <t>黎山老母</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%99%AE%E8%B4%A4</t>
+  </si>
+  <si>
+    <t>普贤</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%96%87%E6%AE%8A</t>
+  </si>
+  <si>
+    <t>文殊</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E4%BA%BA%E5%8F%82%E6%9E%9C/2606527</t>
+  </si>
+  <si>
+    <t>人参果</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%95%87%E5%85%83%E5%AD%90</t>
+  </si>
+  <si>
+    <t>镇元子</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%BB%84%E8%A2%8D%E6%80%AA</t>
+  </si>
+  <si>
+    <t>黄袍怪</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%99%BE%E8%8A%B1%E5%85%AC%E4%B8%BB/10736</t>
+  </si>
+  <si>
+    <t>百花公主</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%99%BD%E9%BE%99%E9%A9%AC/3976</t>
+  </si>
+  <si>
+    <t>白龙马</t>
   </si>
   <si>
     <t>https://baike.baidu.com/item/%E9%87%91%E8%A7%92%E5%A4%A7%E7%8E%8B</t>
@@ -392,61 +647,970 @@
     <t>金角大王</t>
   </si>
   <si>
-    <t>https://baike.baidu.com/item/%E8%83%A1%E5%B9%B3%E6%99%BA</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E8%BD%A6%E8%BF%9F%E5%9B%BD%E7%8E%8B</t>
-  </si>
-  <si>
-    <t>车迟国王</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E4%BA%95%E9%BE%99%E7%8E%8B</t>
-  </si>
-  <si>
-    <t>井龙王</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E6%96%87%E6%AE%8A%E8%8F%A9%E8%90%A8</t>
+    <t>https://baike.baidu.com/item/%E9%93%B6%E8%A7%92%E5%A4%A7%E7%8E%8B</t>
+  </si>
+  <si>
+    <t>银角大王</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E4%B9%8C%E9%B8%A1%E5%9B%BD/82743</t>
+  </si>
+  <si>
+    <t>乌鸡国</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%96%87%E6%AE%8A%E8%8F%A9%E8%90%A8/232226</t>
   </si>
   <si>
     <t>文殊菩萨</t>
   </si>
   <si>
-    <t>https://baike.baidu.com/item/%E5%94%90%E5%A4%AA%E5%AE%97</t>
-  </si>
-  <si>
-    <t>唐太宗</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E7%8E%8B%E8%82%96%E5%85%B5</t>
-  </si>
-  <si>
-    <t>王肖兵</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E5%AE%9D%E8%B1%A1%E5%9B%BD%E5%9B%BD%E7%8E%8B</t>
-  </si>
-  <si>
-    <t>宝象国国王</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E7%89%9B%E9%AD%94%E7%8E%8B</t>
+    <t>https://baike.baidu.com/item/%E7%BA%A2%E5%AD%A9%E5%84%BF/22184</t>
+  </si>
+  <si>
+    <t>红孩儿</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%81%AB%E4%BA%91%E6%B4%9E</t>
+  </si>
+  <si>
+    <t>火云洞</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%94%90%E5%83%A7%E8%82%89</t>
+  </si>
+  <si>
+    <t>唐僧肉</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E4%B8%89%E6%98%A7%E7%9C%9F%E7%81%AB</t>
+  </si>
+  <si>
+    <t>三昧真火</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%A5%BF%E6%B5%B7%E9%BE%99%E7%8E%8B/73666</t>
+  </si>
+  <si>
+    <t>西海龙王</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%BD%A6%E8%BF%9F%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>车迟国</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%80%9A%E5%A4%A9%E6%B2%B3/46353</t>
+  </si>
+  <si>
+    <t>通天河</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%87%91%E5%88%9A%E9%95%AF</t>
+  </si>
+  <si>
+    <t>金刚镯</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%8D%81%E5%85%AB%E7%BD%97%E6%B1%89/29318</t>
+  </si>
+  <si>
+    <t>十八罗汉</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%85%AB%E6%88%92/3680243</t>
+  </si>
+  <si>
+    <t>八戒</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%AD%90%E6%AF%8D%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>子母河</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%98%B4%E6%97%A5%E6%98%9F%E5%AE%98</t>
+  </si>
+  <si>
+    <t>昴日星官</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%8F%A9%E8%90%A8</t>
+  </si>
+  <si>
+    <t>菩萨</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%9C%B0%E8%97%8F/21020</t>
+  </si>
+  <si>
+    <t>地藏</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%9B%B7%E9%9F%B3%E5%AF%BA/2250503</t>
+  </si>
+  <si>
+    <t>雷音寺</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%81%AB%E7%84%B0%E5%B1%B1/16507</t>
+  </si>
+  <si>
+    <t>火焰山</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%93%81%E6%89%87%E5%85%AC%E4%B8%BB/2291</t>
+  </si>
+  <si>
+    <t>铁扇公主</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%81%B5%E5%B1%B1/2923</t>
+  </si>
+  <si>
+    <t>灵山</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%89%9B%E9%AD%94%E7%8E%8B/4468</t>
   </si>
   <si>
     <t>牛魔王</t>
   </si>
   <si>
+    <t>https://baike.baidu.com/item/%E9%A9%B8%E9%A9%AC</t>
+  </si>
+  <si>
+    <t>驸马</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%BB%84%E7%9C%89%E6%80%AA</t>
+  </si>
+  <si>
+    <t>黄眉怪</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%9C%98%E8%9B%9B%E7%B2%BE/22825</t>
+  </si>
+  <si>
+    <t>蜘蛛精</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%9C%88%E8%9A%A3%E7%B2%BE</t>
+  </si>
+  <si>
+    <t>蜈蚣精</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%99%BD%E8%B1%A1/15928137</t>
+  </si>
+  <si>
+    <t>白象</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%AF%94%E4%B8%98%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>比丘国</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%99%B7%E7%A9%BA%E5%B1%B1</t>
+  </si>
+  <si>
+    <t>陷空山</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%80%81%E9%BC%A0%E7%B2%BE</t>
+  </si>
+  <si>
+    <t>老鼠精</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%9A%90%E9%9B%BE%E5%B1%B1</t>
+  </si>
+  <si>
+    <t>隐雾山</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%A4%A9%E7%AB%BA%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>天竺国</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%BB%84%E7%8B%AE%E7%B2%BE</t>
+  </si>
+  <si>
+    <t>黄狮精</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%A4%AA%E4%B9%99%E6%95%91%E8%8B%A6%E5%A4%A9%E5%B0%8A</t>
+  </si>
+  <si>
+    <t>太乙救苦天尊</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%87%91%E5%B9%B3%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>金平府</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%AF%87%E5%91%98%E5%A4%96</t>
+  </si>
+  <si>
+    <t>寇员外</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%98%BF%E9%9A%BE</t>
+  </si>
+  <si>
+    <t>阿难</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E4%BC%BD%E5%8F%B6</t>
+  </si>
+  <si>
+    <t>伽叶</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%99%BD%E9%9B%84%E5%B0%8A%E8%80%85</t>
+  </si>
+  <si>
+    <t>白雄尊者</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%97%83%E6%AA%80%E5%8A%9F%E5%BE%B7%E4%BD%9B</t>
+  </si>
+  <si>
+    <t>旃檀功德佛</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%96%97%E6%88%98%E8%83%9C%E4%BD%9B/68479</t>
+  </si>
+  <si>
+    <t>斗战胜佛</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%87%80%E5%9D%9B%E4%BD%BF%E8%80%85</t>
+  </si>
+  <si>
+    <t>净坛使者</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%87%91%E8%BA%AB%E7%BD%97%E6%B1%89/1614881</t>
+  </si>
+  <si>
+    <t>金身罗汉</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%85%AB%E9%83%A8%E5%A4%A9%E9%BE%99/1059153</t>
+  </si>
+  <si>
+    <t>八部天龙</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%A4%A7%E5%94%90%E8%A5%BF%E5%9F%9F%E8%AE%B0</t>
+  </si>
+  <si>
+    <t>大唐西域记</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%A4%A7%E5%94%90%E5%A4%A7%E6%85%88%E6%81%A9%E5%AF%BA%E4%B8%89%E8%97%8F%E6%B3%95%E5%B8%88%E4%BC%A0</t>
+  </si>
+  <si>
+    <t>大唐大慈恩寺三藏法师传</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%A4%A7%E5%94%90%E4%B8%89%E8%97%8F%E5%8F%96%E7%BB%8F%E8%AF%97%E8%AF%9D</t>
+  </si>
+  <si>
+    <t>大唐三藏取经诗话</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%94%90%E4%B8%89%E8%97%8F</t>
+  </si>
+  <si>
+    <t>唐三藏</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%9F%A0%E6%A1%83%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>蟠桃会</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%BC%98%E6%B2%BB/15692</t>
+  </si>
+  <si>
+    <t>弘治</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%AD%A3%E5%BE%B7/9533372</t>
+  </si>
+  <si>
+    <t>正德</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%98%89%E9%9D%96/5520882</t>
+  </si>
+  <si>
+    <t>嘉靖</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%9A%86%E5%BA%86/15693</t>
+  </si>
+  <si>
+    <t>隆庆</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E4%B8%87%E5%8E%86</t>
+  </si>
+  <si>
+    <t>万历</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%B5%84%E6%9C%AC%E4%B8%BB%E4%B9%89%E8%90%8C%E8%8A%BD</t>
+  </si>
+  <si>
+    <t>资本主义萌芽</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%AD%99%E8%A1%8C%E8%80%85</t>
+  </si>
+  <si>
+    <t>孙行者</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%BE%8E%E7%8C%B4%E7%8E%8B</t>
+  </si>
+  <si>
+    <t>美猴王</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>洲</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%8F%A9%E6%8F%90%E8%80%81%E7%A5%96</t>
+  </si>
+  <si>
+    <t>菩提老祖</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%8B%9B%E5%AE%89</t>
+  </si>
+  <si>
+    <t>招安</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%A8%98</t>
+  </si>
+  <si>
+    <t>娘</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%98%B4%E5%B7%AE%E9%98%B3%E9%94%99</t>
+  </si>
+  <si>
+    <t>阴差阳错</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%A6%82%E6%9D%A5</t>
+  </si>
+  <si>
+    <t>如来</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%AC%A6%E5%92%92/3589697</t>
+  </si>
+  <si>
+    <t>符咒</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%A7%82%E9%9F%B3</t>
+  </si>
+  <si>
+    <t>观音</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%9C%BA%E6%99%BA</t>
+  </si>
+  <si>
+    <t>机智</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%8B%87%E6%95%A2/2894</t>
+  </si>
+  <si>
+    <t>勇敢</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%B1%9F%E6%B5%81%E5%84%BF</t>
+  </si>
+  <si>
+    <t>江流儿</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%87%91%E8%9D%89%E5%AD%90</t>
+  </si>
+  <si>
+    <t>金蝉子</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%8C%AA%E5%88%9A%E9%AC%A3</t>
+  </si>
+  <si>
+    <t>猪刚鬣</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%8C%AA%E6%82%9F%E8%83%BD</t>
+  </si>
+  <si>
+    <t>猪悟能</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%AB%98%E8%80%81%E5%BA%84</t>
+  </si>
+  <si>
+    <t>高老庄</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%AB%98%E7%BF%A0%E5%85%B0</t>
+  </si>
+  <si>
+    <t>高翠兰</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%8D%B7%E5%B8%98%E5%A4%A7%E5%B0%86</t>
+  </si>
+  <si>
+    <t>卷帘大将</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%90%89%E7%92%83%E7%9B%8F/9085</t>
+  </si>
+  <si>
+    <t>琉璃盏</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E4%B8%87%E7%AE%AD%E7%A9%BF%E5%BF%83/62151</t>
+  </si>
+  <si>
+    <t>万箭穿心</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%80%81%E5%AE%9E</t>
+  </si>
+  <si>
+    <t>老实</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%A7%82%E4%B8%96%E9%9F%B3%E8%8F%A9%E8%90%A8</t>
+  </si>
+  <si>
+    <t>观世音菩萨</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%AD%BB%E7%BD%AA/33000</t>
+  </si>
+  <si>
+    <t>死罪</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%A4%A7%E9%9B%B7%E9%9F%B3%E5%AF%BA</t>
+  </si>
+  <si>
+    <t>大雷音寺</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%93%8E%E5%A4%A9/10250063</t>
+  </si>
+  <si>
+    <t>擎天</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%8D%8E%E8%A1%A8%E6%9F%B1</t>
+  </si>
+  <si>
+    <t>华表柱</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%A6%82%E6%9D%A5%E4%BD%9B</t>
+  </si>
+  <si>
+    <t>如来佛</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%99%AE%E8%B4%A4%E8%8F%A9%E8%90%A8</t>
+  </si>
+  <si>
+    <t>普贤菩萨</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%98%BF%E5%82%A9</t>
+  </si>
+  <si>
+    <t>阿傩</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%BC%A5%E5%8B%92%E4%BD%9B</t>
+  </si>
+  <si>
+    <t>弥勒佛</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%AF%97%E8%93%9D%E5%A9%86%E8%8F%A9%E8%90%A8</t>
+  </si>
+  <si>
+    <t>毗蓝婆菩萨</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%9C%B0%E8%97%8F%E7%8E%8B%E8%8F%A9%E8%90%A8</t>
+  </si>
+  <si>
+    <t>地藏王菩萨</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%85%83%E5%A7%8B%E5%A4%A9%E5%B0%8A</t>
+  </si>
+  <si>
+    <t>元始天尊</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%81%B5%E5%AE%9D%E5%A4%A9%E5%B0%8A/5475388</t>
+  </si>
+  <si>
+    <t>灵宝天尊</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%AA%8A%E5%B1%B1%E8%80%81%E6%AF%8D</t>
+  </si>
+  <si>
+    <t>骊山老母</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%9C%9F%E6%AD%A6%E5%A4%A7%E5%B8%9D</t>
+  </si>
+  <si>
+    <t>真武大帝</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%8D%83%E9%87%8C%E7%9C%BC/8970371</t>
+  </si>
+  <si>
+    <t>千里眼</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%A1%BA%E9%A3%8E%E8%80%B3</t>
+  </si>
+  <si>
+    <t>顺风耳</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%9B%B7%E5%85%AC</t>
+  </si>
+  <si>
+    <t>雷公</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%94%B5%E6%AF%8D</t>
+  </si>
+  <si>
+    <t>电母</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%A3%8E%E4%BC%AF</t>
+  </si>
+  <si>
+    <t>风伯</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%9B%A8%E5%B8%88</t>
+  </si>
+  <si>
+    <t>雨师</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E4%BA%94%E7%82%81%E7%9C%9F%E5%90%9B</t>
+  </si>
+  <si>
+    <t>五炁真君</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%B5%A4%E8%84%9A%E5%A4%A7%E4%BB%99</t>
+  </si>
+  <si>
+    <t>赤脚大仙</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%A4%AA%E9%98%B3%E6%98%9F%E5%90%9B</t>
+  </si>
+  <si>
+    <t>太阳星君</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%A4%AA%E9%98%B4%E6%98%9F%E5%90%9B</t>
+  </si>
+  <si>
+    <t>太阴星君</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%B4%A0%E5%A8%A5%E4%BB%99%E5%AD%90</t>
+  </si>
+  <si>
+    <t>素娥仙子</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%97%A5%E6%B8%B8%E7%A5%9E</t>
+  </si>
+  <si>
+    <t>日游神</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%A4%9C%E6%B8%B8%E7%A5%9E</t>
+  </si>
+  <si>
+    <t>夜游神</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%89%98%E5%A1%94%E5%A4%A9%E7%8E%8B</t>
+  </si>
+  <si>
+    <t>托塔天王</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%87%91%E5%92%A4</t>
+  </si>
+  <si>
+    <t>金咤</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%9C%A8%E5%92%A4</t>
+  </si>
+  <si>
+    <t>木咤</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E4%B9%9D%E5%A4%A9%E5%BA%94%E5%85%83%E9%9B%B7%E5%A3%B0%E6%99%AE%E5%8C%96%E5%A4%A9%E5%B0%8A</t>
+  </si>
+  <si>
+    <t>九天应元雷声普化天尊</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%9B%9B%E5%A4%A7%E5%A4%A9%E7%8E%8B</t>
+  </si>
+  <si>
+    <t>四大天王</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%A6%8F%E7%A6%84%E5%AF%BF%E4%B8%89%E6%98%9F</t>
+  </si>
+  <si>
+    <t>福禄寿三星</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E4%BA%8C%E5%8D%81%E5%85%AB%E5%AE%BF</t>
+  </si>
+  <si>
+    <t>二十八宿</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%8D%97%E6%96%97%E5%85%AD%E6%98%9F</t>
+  </si>
+  <si>
+    <t>南斗六星</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%8C%97%E6%96%97%E4%B8%83%E6%98%9F</t>
+  </si>
+  <si>
+    <t>北斗七星</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E4%B8%9C%E6%B5%B7%E9%BE%99%E7%8E%8B</t>
+  </si>
+  <si>
+    <t>东海龙王</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%8D%97%E6%B5%B7%E9%BE%99%E7%8E%8B</t>
+  </si>
+  <si>
+    <t>南海龙王</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%8C%97%E6%B5%B7%E9%BE%99%E7%8E%8B</t>
+  </si>
+  <si>
+    <t>北海龙王</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%A5%9A%E6%B1%9F%E7%8E%8B</t>
+  </si>
+  <si>
+    <t>楚江王</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%AE%8B%E5%B8%9D%E7%8E%8B</t>
+  </si>
+  <si>
+    <t>宋帝王</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E4%BA%94%E5%AE%98%E7%8E%8B</t>
+  </si>
+  <si>
+    <t>五官王</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%98%8E%E7%BD%97%E7%8E%8B</t>
+  </si>
+  <si>
+    <t>阎罗王</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%B9%B3%E7%AD%89%E7%8E%8B</t>
+  </si>
+  <si>
+    <t>平等王</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%B3%B0%E5%B1%B1%E7%8E%8B</t>
+  </si>
+  <si>
+    <t>泰山王</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%83%BD%E5%B8%82%E7%8E%8B</t>
+  </si>
+  <si>
+    <t>都市王</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%8D%9E%E5%9F%8E%E7%8E%8B</t>
+  </si>
+  <si>
+    <t>卞城王</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%BD%AC%E8%BD%AE%E7%8E%8B</t>
+  </si>
+  <si>
+    <t>转轮王</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%95%87%E5%85%83%E5%A4%A7%E4%BB%99/5831723</t>
+  </si>
+  <si>
+    <t>镇元大仙</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%B7%B7%E4%B8%96%E9%AD%94%E7%8E%8B/2191993</t>
+  </si>
+  <si>
+    <t>混世魔王</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%AF%85%E5%B0%86%E5%86%9B</t>
+  </si>
+  <si>
+    <t>寅将军</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%86%8A%E5%B1%B1%E5%90%9B</t>
+  </si>
+  <si>
+    <t>熊山君</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%89%B9%E5%A4%84%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>特处士</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%BB%91%E9%A3%8E%E6%80%AA</t>
+  </si>
+  <si>
+    <t>黑风怪</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%87%8C%E8%99%9A%E5%AD%90</t>
+  </si>
+  <si>
+    <t>凌虚子</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%99%BD%E8%A1%A3%E7%A7%80%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>白衣秀士</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%99%8E%E5%85%88%E9%94%8B</t>
+  </si>
+  <si>
+    <t>虎先锋</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%BB%84%E9%A3%8E%E6%80%AA</t>
+  </si>
+  <si>
+    <t>黄风怪</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%99%BD%E9%AA%A8%E7%B2%BE</t>
+  </si>
+  <si>
+    <t>白骨精</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%8E%8B%E9%BE%99%E5%A4%A7%E4%BB%99</t>
+  </si>
+  <si>
+    <t>压龙大仙</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%8B%AE%E9%AD%94%E7%8E%8B</t>
+  </si>
+  <si>
+    <t>狮魔王</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%99%8E%E5%8A%9B%E5%A4%A7%E4%BB%99</t>
+  </si>
+  <si>
+    <t>虎力大仙</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%B9%BF%E5%8A%9B%E5%A4%A7%E4%BB%99</t>
+  </si>
+  <si>
+    <t>鹿力大仙</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%BE%8A%E5%8A%9B%E5%A4%A7%E4%BB%99</t>
+  </si>
+  <si>
+    <t>羊力大仙</t>
+  </si>
+  <si>
     <t>https://baike.baidu.com/item/%E7%81%B5%E6%84%9F%E5%A4%A7%E7%8E%8B</t>
   </si>
   <si>
     <t>灵感大王</t>
   </si>
   <si>
-    <t>https://baike.baidu.com/item/%E9%BB%84%E7%9C%89%E6%80%AA</t>
-  </si>
-  <si>
-    <t>黄眉怪</t>
+    <t>https://baike.baidu.com/item/%E7%8B%AC%E8%A7%92%E5%85%95%E5%A4%A7%E7%8E%8B</t>
+  </si>
+  <si>
+    <t>独角兕大王</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%A6%82%E6%84%8F%E7%9C%9F%E4%BB%99</t>
+  </si>
+  <si>
+    <t>如意真仙</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%9D%8E%E5%AD%90%E7%B2%BE</t>
+  </si>
+  <si>
+    <t>蝎子精</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%85%AD%E8%80%B3%E7%8C%95%E7%8C%B4</t>
+  </si>
+  <si>
+    <t>六耳猕猴</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%8E%89%E9%9D%A2%E5%85%AC%E4%B8%BB</t>
+  </si>
+  <si>
+    <t>玉面公主</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%A5%94%E6%B3%A2%E5%84%BF%E7%81%9E</t>
+  </si>
+  <si>
+    <t>奔波儿灞</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%81%9E%E6%B3%A2%E5%84%BF%E5%A5%94</t>
+  </si>
+  <si>
+    <t>灞波儿奔</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E4%B8%87%E5%9C%A3%E9%BE%99%E7%8E%8B</t>
+  </si>
+  <si>
+    <t>万圣龙王</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E4%B9%9D%E5%A4%B4%E9%A9%B8%E9%A9%AC</t>
+  </si>
+  <si>
+    <t>九头驸马</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%B5%A4%E8%BA%AB%E9%AC%BC</t>
+  </si>
+  <si>
+    <t>赤身鬼</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%8A%B2%E8%8A%82%E5%8D%81%E5%85%AB%E5%85%AC</t>
+  </si>
+  <si>
+    <t>劲节十八公</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%AD%A4%E7%9B%B4%E5%85%AC</t>
+  </si>
+  <si>
+    <t>孤直公</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%87%8C%E7%A9%BA%E5%AD%90</t>
+  </si>
+  <si>
+    <t>凌空子</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%8B%82%E4%BA%91%E5%8F%9F</t>
+  </si>
+  <si>
+    <t>拂云叟</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%9D%8F%E4%BB%99</t>
+  </si>
+  <si>
+    <t>杏仙</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%BB%84%E7%9C%89%E5%A4%A7%E7%8E%8B</t>
+  </si>
+  <si>
+    <t>黄眉大王</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%9F%92%E8%9B%87%E7%B2%BE</t>
+  </si>
+  <si>
+    <t>蟒蛇精</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%9C%89%E6%9D%A5%E6%9C%89%E5%8E%BB</t>
+  </si>
+  <si>
+    <t>有来有去</t>
   </si>
   <si>
     <t>https://baike.baidu.com/item/%E8%B5%9B%E5%A4%AA%E5%B2%81</t>
@@ -455,328 +1619,664 @@
     <t>赛太岁</t>
   </si>
   <si>
-    <t>https://baike.baidu.com/item/%E7%8A%80%E7%89%9B%E7%B2%BE</t>
-  </si>
-  <si>
-    <t>犀牛精</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E9%93%81%E6%89%87%E5%85%AC%E4%B8%BB</t>
-  </si>
-  <si>
-    <t>铁扇公主</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E7%8E%8B%E5%BB%BA%E6%96%B0</t>
-  </si>
-  <si>
-    <t>王建新</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E5%A5%B3%E5%84%BF%E5%9B%BD%E5%A4%AA%E5%B8%88</t>
-  </si>
-  <si>
-    <t>女儿国太师</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E9%AB%98%E7%BF%A0%E5%85%B0</t>
-  </si>
-  <si>
-    <t>高翠兰</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E7%8B%84%E8%8F%B2%E8%8F%B2</t>
-  </si>
-  <si>
-    <t>狄菲菲</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E7%8E%89%E9%9D%A2%E7%8B%90</t>
-  </si>
-  <si>
-    <t>玉面狐</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E4%B9%9D%E5%B0%BE%E7%8B%90</t>
-  </si>
-  <si>
-    <t>九尾狐</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E5%A4%A9%E7%AB%BA%E5%9B%BD%E5%85%AC%E4%B8%BB</t>
-  </si>
-  <si>
-    <t>天竺国公主</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E9%87%91%E6%B1%A0%E9%95%BF%E8%80%81</t>
-  </si>
-  <si>
-    <t>金池长老</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E4%B8%A5%E5%B4%87%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>严崇德</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E5%9C%9F%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>土地</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E5%A4%AA%E7%99%BD%E9%87%91%E6%98%9F</t>
-  </si>
-  <si>
-    <t>太白金星</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E7%BE%8A%E5%8A%9B%E5%A4%A7%E4%BB%99</t>
-  </si>
-  <si>
-    <t>羊力大仙</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E4%B8%87%E5%9C%A3%E9%BE%99%E7%8E%8B</t>
-  </si>
-  <si>
-    <t>万圣龙王</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E9%95%87%E5%85%83%E5%A4%A7%E4%BB%99</t>
-  </si>
-  <si>
-    <t>镇元大仙</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E7%99%BD%E6%B6%9B</t>
-  </si>
-  <si>
-    <t>白涛</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E9%BB%84%E8%A2%8D%E6%80%AA</t>
-  </si>
-  <si>
-    <t>黄袍怪</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E9%BB%84%E9%A3%8E%E6%80%AA</t>
-  </si>
-  <si>
-    <t>黄风怪</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E5%9C%B0%E8%97%8F%E7%8E%8B%E8%8F%A9%E8%90%A8</t>
-  </si>
-  <si>
-    <t>地藏王菩萨</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E5%BC%A5%E5%8B%92%E4%BD%9B</t>
-  </si>
-  <si>
-    <t>弥勒佛</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E4%B9%8C%E9%B8%A1%E5%9B%BD%E5%A4%AA%E5%AD%90</t>
-  </si>
-  <si>
-    <t>乌鸡国太子</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E5%88%98%E9%92%A6</t>
-  </si>
-  <si>
-    <t>刘钦</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E4%B9%9D%E5%A4%B4%E8%99%AB</t>
-  </si>
-  <si>
-    <t>九头虫</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E5%A4%AA%E4%B8%8A%E8%80%81%E5%90%9B</t>
-  </si>
-  <si>
-    <t>太上老君</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E5%AD%99%E6%B8%9D%E7%83%BD</t>
-  </si>
-  <si>
-    <t>孙渝烽</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E5%AF%BF%E6%98%9F</t>
-  </si>
-  <si>
-    <t>寿星</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E6%B5%B7%E5%B8%86</t>
-  </si>
-  <si>
-    <t>海帆</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E9%93%B6%E8%A7%92%E5%A4%A7%E7%8E%8B</t>
-  </si>
-  <si>
-    <t>银角大王</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E7%99%BD%E9%AA%A8%E7%B2%BE</t>
-  </si>
-  <si>
-    <t>白骨精</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E5%A7%9C%E7%8E%89%E7%8E%B2</t>
-  </si>
-  <si>
-    <t>姜玉玲</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E5%A5%B3%E5%84%BF%E5%9B%BD%E5%9B%BD%E7%8E%8B</t>
-  </si>
-  <si>
-    <t>女儿国国王</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E7%8E%8B%E9%9D%99%E6%96%87</t>
-  </si>
-  <si>
-    <t>王静文</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E6%99%AE%E8%B4%A4%E8%8F%A9%E8%90%A8</t>
-  </si>
-  <si>
-    <t>普贤菩萨</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E6%88%B4%E5%AD%A6%E5%BA%90</t>
-  </si>
-  <si>
-    <t>戴学庐</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E5%93%AA%E5%90%92</t>
-  </si>
-  <si>
-    <t>哪吒</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E6%9B%BE%E4%B8%B9</t>
-  </si>
-  <si>
-    <t>曾丹</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E6%9C%A8%E5%8F%89</t>
-  </si>
-  <si>
-    <t>木叉</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E5%BC%A0%E6%B6%B5%E4%BA%88</t>
-  </si>
-  <si>
-    <t>张涵予</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E9%BD%90%E6%9D%B0/62508</t>
-  </si>
-  <si>
-    <t>齐杰</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E5%88%98%E6%B6%A6%E6%88%90</t>
-  </si>
-  <si>
-    <t>刘润成</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E5%85%9A%E5%90%8C%E4%B9%89</t>
-  </si>
-  <si>
-    <t>党同义</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E7%BA%AA%E5%85%83/7922091</t>
-  </si>
-  <si>
-    <t>纪元</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E6%9D%8E%E7%AB%8B%E5%AE%8F/14684</t>
-  </si>
-  <si>
-    <t>李立宏</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E5%BB%96%E8%8F%81</t>
-  </si>
-  <si>
-    <t>廖菁</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E5%BC%A0%E7%92%90/8224536</t>
-  </si>
-  <si>
-    <t>张璐</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E7%94%B0%E4%BA%8C%E5%96%9C</t>
-  </si>
-  <si>
-    <t>田二喜</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E7%8E%8B%E7%BE%8A</t>
-  </si>
-  <si>
-    <t>王羊</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E6%BD%98%E7%A7%AF%E8%80%80</t>
-  </si>
-  <si>
-    <t>潘积耀</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E7%8C%B4%E5%93%A5/9820788</t>
-  </si>
-  <si>
-    <t>猴哥</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E8%82%96%E7%99%BD</t>
-  </si>
-  <si>
-    <t>肖白</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E5%BC%A0%E9%BB%8E/10968338</t>
-  </si>
-  <si>
-    <t>张黎</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E4%B8%80%E4%B8%AA%E5%B8%88%E5%82%85%E4%BB%A8%E5%BE%92%E5%BC%9F</t>
-  </si>
-  <si>
-    <t>一个师傅仨徒弟</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E8%89%B3%E8%89%B3</t>
-  </si>
-  <si>
-    <t>艳艳</t>
+    <t>https://baike.baidu.com/item/%E7%99%BE%E7%9C%BC%E9%AD%94%E5%90%9B</t>
+  </si>
+  <si>
+    <t>百眼魔君</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%B0%8F%E9%92%BB%E9%A3%8E</t>
+  </si>
+  <si>
+    <t>小钻风</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%9D%92%E6%AF%9B%E7%8B%AE%E7%8E%8B</t>
+  </si>
+  <si>
+    <t>青毛狮王</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E4%BA%91%E7%A8%8B%E4%B8%87%E9%87%8C%E9%B9%8F</t>
+  </si>
+  <si>
+    <t>云程万里鹏</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%9B%BD%E5%90%8E</t>
+  </si>
+  <si>
+    <t>国后</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%87%91%E9%BC%BB%E7%99%BD%E6%AF%9B%E8%80%81%E9%BC%A0%E7%B2%BE</t>
+  </si>
+  <si>
+    <t>金鼻白毛老鼠精</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%8D%97%E5%B1%B1%E5%A4%A7%E7%8E%8B</t>
+  </si>
+  <si>
+    <t>南山大王</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%9B%AA%E7%8B%AE</t>
+  </si>
+  <si>
+    <t>雪狮</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%8B%BB%E7%8C%8A</t>
+  </si>
+  <si>
+    <t>狻猊</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%99%BD%E6%B3%BD</t>
+  </si>
+  <si>
+    <t>白泽</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E4%BC%8F%E7%8B%B8</t>
+  </si>
+  <si>
+    <t>伏狸</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%8A%9F%E8%B1%A1</t>
+  </si>
+  <si>
+    <t>抟象</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E4%B9%9D%E7%81%B5%E5%85%83%E5%9C%A3/70014</t>
+  </si>
+  <si>
+    <t>九灵元圣</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%BE%9F%E5%AF%92%E5%A4%A7%E7%8E%8B</t>
+  </si>
+  <si>
+    <t>辟寒大王</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%BE%9F%E6%9A%91%E5%A4%A7%E7%8E%8B</t>
+  </si>
+  <si>
+    <t>辟暑大王</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%BE%9F%E5%B0%98%E5%A4%A7%E7%8E%8B</t>
+  </si>
+  <si>
+    <t>辟尘大王</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%8E%89%E5%85%94%E7%B2%BE</t>
+  </si>
+  <si>
+    <t>玉兔精</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E4%BD%9B/1107</t>
+  </si>
+  <si>
+    <t>佛</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%81%93/3919554</t>
+  </si>
+  <si>
+    <t>道</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%84%92</t>
+  </si>
+  <si>
+    <t>儒</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%85%88%E7%A7%A6</t>
+  </si>
+  <si>
+    <t>先秦</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E4%B8%BB%E6%B5%81%E6%84%8F%E8%AF%86%E5%BD%A2%E6%80%81</t>
+  </si>
+  <si>
+    <t>主流意识形态</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%9A%87%E6%9D%83</t>
+  </si>
+  <si>
+    <t>皇权</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%A5%9E%E6%9D%83/54220</t>
+  </si>
+  <si>
+    <t>神权</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%BB%91%E6%A0%BC%E5%B0%94</t>
+  </si>
+  <si>
+    <t>黑格尔</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%BE%8E%E5%AD%A6/2234028</t>
+  </si>
+  <si>
+    <t>美学</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%88%BA%E5%AE%A2%E5%88%97%E4%BC%A0/3231</t>
+  </si>
+  <si>
+    <t>刺客列传</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%89%BA%E6%9C%AF%E7%89%B9%E8%89%B2</t>
+  </si>
+  <si>
+    <t>艺术特色</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%83%A1%E9%80%82</t>
+  </si>
+  <si>
+    <t>胡适</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%B2%81%E8%BF%85/36231</t>
+  </si>
+  <si>
+    <t>鲁迅</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%B0%A2%E8%82%87%E6%B5%99</t>
+  </si>
+  <si>
+    <t>谢肇浙</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%8D%97%E6%80%80%E7%91%BE</t>
+  </si>
+  <si>
+    <t>南怀瑾</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%96%B0%E5%88%BB%E5%87%BA%E5%83%8F%E5%AE%98%E6%9D%BF%E5%A4%A7%E5%AD%97%E8%A5%BF%E6%B8%B8%E8%AE%B0</t>
+  </si>
+  <si>
+    <t>新刻出像官板大字西游记</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%94%90%E5%83%A7%E8%A5%BF%E6%B8%B8%E8%AE%B0</t>
+  </si>
+  <si>
+    <t>唐僧西游记</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%9D%8E%E5%8D%93%E5%90%BE%E5%85%88%E7%94%9F%E6%89%B9%E8%AF%84%E8%A5%BF%E6%B8%B8%E8%AE%B0</t>
+  </si>
+  <si>
+    <t>李卓吾先生批评西游记</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%94%90%E4%B8%89%E8%97%8F%E8%A5%BF%E6%B8%B8%E9%87%8A%E5%8E%84%E4%BC%A0</t>
+  </si>
+  <si>
+    <t>唐三藏西游释厄传</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%A5%BF%E6%B8%B8%E8%AE%B0%E4%BC%A0/704287</t>
+  </si>
+  <si>
+    <t>西游记传</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%A5%BF%E6%B8%B8%E7%9C%9F%E8%AF%A0</t>
+  </si>
+  <si>
+    <t>西游真诠</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%96%B0%E8%AF%B4%E8%A5%BF%E6%B8%B8%E8%AE%B0</t>
+  </si>
+  <si>
+    <t>新说西游记</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E4%BA%8C%E5%8D%81%E5%9B%9B%E5%B0%8A%E5%BE%97%E9%81%93%E7%BD%97%E6%B1%89%E4%BC%A0</t>
+  </si>
+  <si>
+    <t>二十四尊得道罗汉传</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%93%81%E6%A0%91%E8%AE%B0</t>
+  </si>
+  <si>
+    <t>铁树记</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%92%92%E6%9E%A3%E8%AE%B0</t>
+  </si>
+  <si>
+    <t>咒枣记</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%B0%81%E7%A5%9E%E6%BC%94%E4%B9%89/69344</t>
+  </si>
+  <si>
+    <t>封神演义</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%AE%9D%E5%8D%B7</t>
+  </si>
+  <si>
+    <t>宝卷</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%BC%93%E8%AF%8D</t>
+  </si>
+  <si>
+    <t>鼓词</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%8E%AB%E6%9C%97</t>
+  </si>
+  <si>
+    <t>莫朗</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%A5%BF%E6%B8%B8%E8%AE%B0%E5%89%8D%E4%BC%A0</t>
+  </si>
+  <si>
+    <t>西游记前传</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%9B%98%E4%B8%9D%E6%B4%9E/13142</t>
+  </si>
+  <si>
+    <t>盘丝洞</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%9D%8E%E7%BF%A0%E8%8E%B2/48017</t>
+  </si>
+  <si>
+    <t>李翠莲</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%8B%9C%E6%98%86%E4%BB%91</t>
+  </si>
+  <si>
+    <t>拜昆仑</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%97%B9%E5%9C%B0%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>闹地府</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%97%B9%E9%BE%99%E5%AE%AB</t>
+  </si>
+  <si>
+    <t>闹龙宫</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%AE%89%E5%A4%A9%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>安天会</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E4%B8%89%E6%89%93%E7%99%BD%E9%AA%A8%E7%B2%BE/5879</t>
+  </si>
+  <si>
+    <t>三打白骨精</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%B9%B3%E9%A1%B6%E5%B1%B1/10914394</t>
+  </si>
+  <si>
+    <t>平顶山</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%A5%B3%E5%84%BF%E5%9B%BD/3281</t>
+  </si>
+  <si>
+    <t>女儿国</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%90%B5%E7%90%B6%E6%B4%9E/13134027</t>
+  </si>
+  <si>
+    <t>琵琶洞</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%8A%AD%E8%95%89%E6%89%87</t>
+  </si>
+  <si>
+    <t>芭蕉扇</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%8B%AE%E9%A9%BC%E5%B2%AD/4665000</t>
+  </si>
+  <si>
+    <t>狮驼岭</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%9B%97%E9%AD%82%E9%93%83</t>
+  </si>
+  <si>
+    <t>盗魂铃</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%99%88%E7%B4%A0%E7%9C%9F</t>
+  </si>
+  <si>
+    <t>陈素真</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%A4%A9%E5%9B%BD%E7%9B%9B%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>天国盛会</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%85%AD%E5%B0%8F%E9%BE%84%E7%AB%A5</t>
+  </si>
+  <si>
+    <t>六小龄童</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%BF%9F%E9%87%8D%E7%91%9E</t>
+  </si>
+  <si>
+    <t>迟重瑞</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%A9%AC%E5%BE%B7%E5%8D%8E/11925</t>
+  </si>
+  <si>
+    <t>马德华</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%97%AB%E6%80%80%E7%A4%BC</t>
+  </si>
+  <si>
+    <t>闫怀礼</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%BC%A0%E5%8D%AB%E5%81%A5</t>
+  </si>
+  <si>
+    <t>张卫健</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%99%88%E6%B5%A9%E6%B0%91/219832</t>
+  </si>
+  <si>
+    <t>陈浩民</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%A5%BF%E6%B8%B8%E8%AE%B0%E7%BB%AD%E9%9B%86</t>
+  </si>
+  <si>
+    <t>西游记续集</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%A5%BF%E6%B8%B8%E8%AE%B0%E5%90%8E%E4%BC%A0</t>
+  </si>
+  <si>
+    <t>西游记后传</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%9B%B9%E8%8D%A3/14531</t>
+  </si>
+  <si>
+    <t>曹荣</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%98%9A%E5%8D%AB%E5%B9%B3</t>
+  </si>
+  <si>
+    <t>阚卫平</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%88%98%E5%A4%A7%E5%88%9A</t>
+  </si>
+  <si>
+    <t>刘大刚</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%9C%AC%E6%9C%A8%E9%9B%85%E5%BC%98</t>
+  </si>
+  <si>
+    <t>本木雅弘</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%AE%AB%E6%B3%BD%E7%90%86%E6%83%A0</t>
+  </si>
+  <si>
+    <t>宫泽理惠</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%94%90%E6%B3%BD%E5%AF%BF%E6%98%8E</t>
+  </si>
+  <si>
+    <t>唐泽寿明</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%A6%99%E5%8F%96%E6%85%8E%E5%90%BE</t>
+  </si>
+  <si>
+    <t>香取慎吾</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%A5%BF%E6%B8%B8%E8%AE%B0%E4%B9%8B%E5%A4%A7%E5%9C%A3%E5%BD%92%E6%9D%A5</t>
+  </si>
+  <si>
+    <t>西游记之大圣归来</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/QQ%E8%A5%BF%E6%B8%B8</t>
+  </si>
+  <si>
+    <t>QQ西游</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%A4%A7%E8%AF%9D%E8%A5%BF%E6%B8%B8/9640</t>
+  </si>
+  <si>
+    <t>大话西游</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E4%B9%B1%E6%96%97%E8%A5%BF%E6%B8%B8</t>
+  </si>
+  <si>
+    <t>乱斗西游</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%B0%91%E5%B9%B4%E8%A5%BF%E6%B8%B8%E8%AE%B0</t>
+  </si>
+  <si>
+    <t>少年西游记</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%99%B6%E5%AE%97%E4%BB%AA</t>
+  </si>
+  <si>
+    <t>陶宗仪</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E4%B8%98%E5%A4%84%E6%9C%BA</t>
+  </si>
+  <si>
+    <t>丘处机</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%B1%AA%E8%B1%A1%E6%97%AD</t>
+  </si>
+  <si>
+    <t>汪象旭</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%99%88%E5%A3%AB%E6%96%8C</t>
+  </si>
+  <si>
+    <t>陈士斌</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%BC%A0%E4%B9%A6%E7%BB%85/15088637</t>
+  </si>
+  <si>
+    <t>张书绅</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%88%98%E4%B8%80%E6%98%8E/2403347</t>
+  </si>
+  <si>
+    <t>刘一明</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%BC%A0%E5%90%AB%E7%AB%A0</t>
+  </si>
+  <si>
+    <t>张含章</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%98%AE%E8%91%B5%E7%94%9F</t>
+  </si>
+  <si>
+    <t>阮葵生</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E4%B8%81%E6%99%8F/3530126</t>
+  </si>
+  <si>
+    <t>丁晏</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%B1%B1%E9%98%B3%E5%BF%97%E9%81%97</t>
+  </si>
+  <si>
+    <t>山阳志遗</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%92%B1%E5%A4%A7%E6%98%95/17676</t>
+  </si>
+  <si>
+    <t>钱大昕</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%9D%8E%E5%BF%97%E5%B8%B8</t>
+  </si>
+  <si>
+    <t>李志常</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%A5%BF%E6%B8%B8%E6%BC%94%E4%B9%89</t>
+  </si>
+  <si>
+    <t>西游演义</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%BE%8D%E8%80%95%E5%BD%95</t>
+  </si>
+  <si>
+    <t>辍耕录</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%83%A2%E4%B9%A6%E7%87%95%E8%AF%B4</t>
+  </si>
+  <si>
+    <t>郢书燕说</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%BA%AA%E6%98%80</t>
+  </si>
+  <si>
+    <t>纪昀</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%84%A6%E5%BE%AA</t>
+  </si>
+  <si>
+    <t>焦循</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%B7%AE%E5%AE%89%E5%BA%9C%E5%BF%97</t>
+  </si>
+  <si>
+    <t>淮安府志</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E4%B8%AD%E5%9B%BD%E5%B0%8F%E8%AF%B4%E5%8F%B2%E7%95%A5</t>
+  </si>
+  <si>
+    <t>中国小说史略</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E4%B8%AD%E5%9B%BD%E5%B0%8F%E8%AF%B4%E7%9A%84%E5%8E%86%E5%8F%B2%E7%9A%84%E5%8F%98%E8%BF%81</t>
+  </si>
+  <si>
+    <t>中国小说的历史的变迁</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E4%BF%9E%E5%B9%B3%E4%BC%AF</t>
+  </si>
+  <si>
+    <t>俞平伯</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%A4%AA%E7%94%B0%E8%BE%B0%E5%A4%AB</t>
+  </si>
+  <si>
+    <t>太田辰夫</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%AB%A0%E5%9F%B9%E6%81%92</t>
+  </si>
+  <si>
+    <t>章培恒</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%8C%97%E4%BA%AC%E5%9B%BE%E4%B9%A6%E9%A6%86%E5%87%BA%E7%89%88%E7%A4%BE</t>
+  </si>
+  <si>
+    <t>北京图书馆出版社</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%9D%8E%E6%98%A5%E8%8A%B3/29162</t>
+  </si>
+  <si>
+    <t>李春芳</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E9%BB%84%E8%99%9E%E7%A8%B7</t>
+  </si>
+  <si>
+    <t>黄虞稷</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%8D%83%E9%A1%B7%E5%A0%82%E4%B9%A6%E7%9B%AE</t>
+  </si>
+  <si>
+    <t>千顷堂书目</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%88%86%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>舆地</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +2625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:G377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1886,7 +3386,7 @@
         <v>65</v>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1909,7 +3409,7 @@
         <v>67</v>
       </c>
       <c r="G34" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1932,7 +3432,7 @@
         <v>69</v>
       </c>
       <c r="G35" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1955,7 +3455,7 @@
         <v>71</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1978,7 +3478,7 @@
         <v>73</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2001,7 +3501,7 @@
         <v>75</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2024,7 +3524,7 @@
         <v>77</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2047,7 +3547,7 @@
         <v>79</v>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2070,7 +3570,7 @@
         <v>81</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2093,7 +3593,7 @@
         <v>83</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2116,7 +3616,7 @@
         <v>85</v>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2139,7 +3639,7 @@
         <v>87</v>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2159,10 +3659,10 @@
         <v>88</v>
       </c>
       <c r="F45" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="G45" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2179,13 +3679,13 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F46" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="G46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2202,13 +3702,13 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F47" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2225,13 +3725,13 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F48" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G48" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2248,13 +3748,13 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F49" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2271,13 +3771,13 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F50" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G50" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2294,13 +3794,13 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F51" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G51" t="n">
-        <v>80</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2317,13 +3817,13 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F52" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G52" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2340,13 +3840,13 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F53" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G53" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2363,13 +3863,13 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F54" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2386,13 +3886,13 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F55" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2409,13 +3909,13 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F56" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2432,10 +3932,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F57" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2455,10 +3955,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F58" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2478,13 +3978,13 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F59" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2501,13 +4001,13 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F60" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2524,13 +4024,13 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F61" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2547,13 +4047,13 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F62" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2570,13 +4070,13 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2593,10 +4093,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F64" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2616,13 +4116,13 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F65" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="G65" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2639,13 +4139,13 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F66" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2662,13 +4162,13 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F67" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2685,13 +4185,13 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F68" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2708,13 +4208,13 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F69" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2731,13 +4231,13 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F70" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G70" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2754,13 +4254,13 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F71" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2777,13 +4277,13 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F72" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G72" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2800,13 +4300,13 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F73" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2823,13 +4323,13 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F74" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G74" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2846,10 +4346,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F75" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -2869,13 +4369,13 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F76" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2892,13 +4392,13 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F77" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G77" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2915,13 +4415,13 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F78" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2938,13 +4438,13 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F79" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2961,10 +4461,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F80" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -2984,10 +4484,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F81" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G81" t="n">
         <v>5</v>
@@ -3007,13 +4507,13 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F82" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3030,10 +4530,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F83" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -3053,13 +4553,13 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F84" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3076,13 +4576,13 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F85" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3099,13 +4599,13 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F86" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G86" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3122,13 +4622,13 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F87" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3145,13 +4645,13 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F88" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3168,13 +4668,13 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F89" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3191,13 +4691,13 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F90" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3214,13 +4714,13 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F91" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3237,13 +4737,13 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F92" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G92" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3260,13 +4760,13 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F93" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G93" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3283,13 +4783,13 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F94" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3306,10 +4806,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F95" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3329,13 +4829,13 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F96" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3352,10 +4852,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F97" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3375,13 +4875,13 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F98" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3398,13 +4898,13 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F99" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3421,13 +4921,13 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F100" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G100" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3444,13 +4944,13 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F101" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3467,13 +4967,13 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F102" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3490,13 +4990,13 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F103" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3513,13 +5013,13 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F104" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G104" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3536,13 +5036,13 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F105" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G105" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3559,13 +5059,13 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F106" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3582,10 +5082,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F107" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -3605,13 +5105,13 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F108" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3628,13 +5128,13 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F109" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3651,10 +5151,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F110" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -3674,13 +5174,13 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F111" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G111" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3697,13 +5197,13 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F112" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G112" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3720,13 +5220,13 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F113" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3743,13 +5243,13 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F114" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G114" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3766,13 +5266,13 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F115" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3789,13 +5289,13 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F116" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3812,13 +5312,13 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F117" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3835,13 +5335,13 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F118" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G118" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3858,13 +5358,13 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F119" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3881,13 +5381,13 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F120" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G120" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3904,13 +5404,13 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F121" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3927,13 +5427,13 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F122" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G122" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3950,13 +5450,13 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F123" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3973,13 +5473,13 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F124" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3996,13 +5496,13 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F125" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G125" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4019,13 +5519,13 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F126" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4042,13 +5542,13 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F127" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G127" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4065,13 +5565,13 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F128" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4088,12 +5588,5716 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>256</v>
+      </c>
+      <c r="F129" t="s">
+        <v>257</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>0</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1</v>
+      </c>
+      <c r="D130" t="n">
+        <v>129</v>
+      </c>
+      <c r="E130" t="s">
+        <v>258</v>
+      </c>
+      <c r="F130" t="s">
+        <v>259</v>
+      </c>
+      <c r="G130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>130</v>
+      </c>
+      <c r="E131" t="s">
+        <v>260</v>
+      </c>
+      <c r="F131" t="s">
+        <v>261</v>
+      </c>
+      <c r="G131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>0</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>131</v>
+      </c>
+      <c r="E132" t="s">
+        <v>262</v>
+      </c>
+      <c r="F132" t="s">
+        <v>263</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>132</v>
+      </c>
+      <c r="E133" t="s">
+        <v>264</v>
+      </c>
+      <c r="F133" t="s">
+        <v>265</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>0</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>133</v>
+      </c>
+      <c r="E134" t="s">
+        <v>266</v>
+      </c>
+      <c r="F134" t="s">
+        <v>267</v>
+      </c>
+      <c r="G134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>0</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1</v>
+      </c>
+      <c r="D135" t="n">
+        <v>134</v>
+      </c>
+      <c r="E135" t="s">
+        <v>268</v>
+      </c>
+      <c r="F135" t="s">
+        <v>269</v>
+      </c>
+      <c r="G135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>0</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>135</v>
+      </c>
+      <c r="E136" t="s">
+        <v>270</v>
+      </c>
+      <c r="F136" t="s">
+        <v>271</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>136</v>
+      </c>
+      <c r="E137" t="s">
+        <v>272</v>
+      </c>
+      <c r="F137" t="s">
+        <v>273</v>
+      </c>
+      <c r="G137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>0</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1</v>
+      </c>
+      <c r="D138" t="n">
+        <v>137</v>
+      </c>
+      <c r="E138" t="s">
+        <v>274</v>
+      </c>
+      <c r="F138" t="s">
+        <v>275</v>
+      </c>
+      <c r="G138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1</v>
+      </c>
+      <c r="D139" t="n">
+        <v>138</v>
+      </c>
+      <c r="E139" t="s">
+        <v>276</v>
+      </c>
+      <c r="F139" t="s">
+        <v>277</v>
+      </c>
+      <c r="G139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>0</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>139</v>
+      </c>
+      <c r="E140" t="s">
+        <v>278</v>
+      </c>
+      <c r="F140" t="s">
+        <v>279</v>
+      </c>
+      <c r="G140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>0</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>140</v>
+      </c>
+      <c r="E141" t="s">
+        <v>280</v>
+      </c>
+      <c r="F141" t="s">
+        <v>281</v>
+      </c>
+      <c r="G141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>0</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1</v>
+      </c>
+      <c r="D142" t="n">
+        <v>141</v>
+      </c>
+      <c r="E142" t="s">
+        <v>282</v>
+      </c>
+      <c r="F142" t="s">
+        <v>283</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>0</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>142</v>
+      </c>
+      <c r="E143" t="s">
+        <v>284</v>
+      </c>
+      <c r="F143" t="s">
+        <v>285</v>
+      </c>
+      <c r="G143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>0</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1</v>
+      </c>
+      <c r="D144" t="n">
+        <v>143</v>
+      </c>
+      <c r="E144" t="s">
+        <v>286</v>
+      </c>
+      <c r="F144" t="s">
+        <v>287</v>
+      </c>
+      <c r="G144" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>0</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1</v>
+      </c>
+      <c r="D145" t="n">
+        <v>144</v>
+      </c>
+      <c r="E145" t="s">
+        <v>288</v>
+      </c>
+      <c r="F145" t="s">
+        <v>289</v>
+      </c>
+      <c r="G145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>0</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1</v>
+      </c>
+      <c r="D146" t="n">
+        <v>145</v>
+      </c>
+      <c r="E146" t="s">
+        <v>290</v>
+      </c>
+      <c r="F146" t="s">
+        <v>291</v>
+      </c>
+      <c r="G146" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>0</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1</v>
+      </c>
+      <c r="D147" t="n">
+        <v>146</v>
+      </c>
+      <c r="E147" t="s">
+        <v>292</v>
+      </c>
+      <c r="F147" t="s">
+        <v>293</v>
+      </c>
+      <c r="G147" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>0</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1</v>
+      </c>
+      <c r="D148" t="n">
+        <v>147</v>
+      </c>
+      <c r="E148" t="s">
+        <v>294</v>
+      </c>
+      <c r="F148" t="s">
+        <v>295</v>
+      </c>
+      <c r="G148" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>0</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1</v>
+      </c>
+      <c r="D149" t="n">
+        <v>148</v>
+      </c>
+      <c r="E149" t="s">
+        <v>296</v>
+      </c>
+      <c r="F149" t="s">
+        <v>297</v>
+      </c>
+      <c r="G149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1</v>
+      </c>
+      <c r="D150" t="n">
+        <v>149</v>
+      </c>
+      <c r="E150" t="s">
+        <v>298</v>
+      </c>
+      <c r="F150" t="s">
+        <v>299</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>0</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1</v>
+      </c>
+      <c r="D151" t="n">
+        <v>150</v>
+      </c>
+      <c r="E151" t="s">
+        <v>300</v>
+      </c>
+      <c r="F151" t="s">
+        <v>301</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1</v>
+      </c>
+      <c r="D152" t="n">
+        <v>151</v>
+      </c>
+      <c r="E152" t="s">
+        <v>302</v>
+      </c>
+      <c r="F152" t="s">
+        <v>303</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>0</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1</v>
+      </c>
+      <c r="D153" t="n">
+        <v>152</v>
+      </c>
+      <c r="E153" t="s">
+        <v>304</v>
+      </c>
+      <c r="F153" t="s">
+        <v>305</v>
+      </c>
+      <c r="G153" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>0</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1</v>
+      </c>
+      <c r="D154" t="n">
+        <v>153</v>
+      </c>
+      <c r="E154" t="s">
+        <v>306</v>
+      </c>
+      <c r="F154" t="s">
+        <v>307</v>
+      </c>
+      <c r="G154" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>0</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1</v>
+      </c>
+      <c r="D155" t="n">
+        <v>154</v>
+      </c>
+      <c r="E155" t="s">
+        <v>308</v>
+      </c>
+      <c r="F155" t="s">
+        <v>309</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>0</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1</v>
+      </c>
+      <c r="D156" t="n">
+        <v>155</v>
+      </c>
+      <c r="E156" t="s">
+        <v>310</v>
+      </c>
+      <c r="F156" t="s">
+        <v>311</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>0</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1</v>
+      </c>
+      <c r="D157" t="n">
+        <v>156</v>
+      </c>
+      <c r="E157" t="s">
+        <v>312</v>
+      </c>
+      <c r="F157" t="s">
+        <v>313</v>
+      </c>
+      <c r="G157" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>0</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1</v>
+      </c>
+      <c r="D158" t="n">
+        <v>157</v>
+      </c>
+      <c r="E158" t="s">
+        <v>314</v>
+      </c>
+      <c r="F158" t="s">
+        <v>315</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>0</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1</v>
+      </c>
+      <c r="D159" t="n">
+        <v>158</v>
+      </c>
+      <c r="E159" t="s">
+        <v>316</v>
+      </c>
+      <c r="F159" t="s">
+        <v>317</v>
+      </c>
+      <c r="G159" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>0</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1</v>
+      </c>
+      <c r="D160" t="n">
+        <v>159</v>
+      </c>
+      <c r="E160" t="s">
+        <v>318</v>
+      </c>
+      <c r="F160" t="s">
+        <v>319</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>0</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1</v>
+      </c>
+      <c r="D161" t="n">
+        <v>160</v>
+      </c>
+      <c r="E161" t="s">
+        <v>320</v>
+      </c>
+      <c r="F161" t="s">
+        <v>321</v>
+      </c>
+      <c r="G161" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>0</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1</v>
+      </c>
+      <c r="D162" t="n">
+        <v>161</v>
+      </c>
+      <c r="E162" t="s">
+        <v>322</v>
+      </c>
+      <c r="F162" t="s">
+        <v>323</v>
+      </c>
+      <c r="G162" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>0</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1</v>
+      </c>
+      <c r="D163" t="n">
+        <v>162</v>
+      </c>
+      <c r="E163" t="s">
+        <v>324</v>
+      </c>
+      <c r="F163" t="s">
+        <v>325</v>
+      </c>
+      <c r="G163" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>0</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1</v>
+      </c>
+      <c r="D164" t="n">
+        <v>163</v>
+      </c>
+      <c r="E164" t="s">
+        <v>326</v>
+      </c>
+      <c r="F164" t="s">
+        <v>327</v>
+      </c>
+      <c r="G164" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>0</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1</v>
+      </c>
+      <c r="D165" t="n">
+        <v>164</v>
+      </c>
+      <c r="E165" t="s">
+        <v>328</v>
+      </c>
+      <c r="F165" t="s">
+        <v>329</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>0</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1</v>
+      </c>
+      <c r="D166" t="n">
+        <v>165</v>
+      </c>
+      <c r="E166" t="s">
+        <v>330</v>
+      </c>
+      <c r="F166" t="s">
+        <v>331</v>
+      </c>
+      <c r="G166" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>0</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1</v>
+      </c>
+      <c r="D167" t="n">
+        <v>166</v>
+      </c>
+      <c r="E167" t="s">
+        <v>332</v>
+      </c>
+      <c r="F167" t="s">
+        <v>333</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>0</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1</v>
+      </c>
+      <c r="D168" t="n">
+        <v>167</v>
+      </c>
+      <c r="E168" t="s">
+        <v>334</v>
+      </c>
+      <c r="F168" t="s">
+        <v>335</v>
+      </c>
+      <c r="G168" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>0</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1</v>
+      </c>
+      <c r="D169" t="n">
+        <v>168</v>
+      </c>
+      <c r="E169" t="s">
+        <v>336</v>
+      </c>
+      <c r="F169" t="s">
+        <v>337</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>0</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1</v>
+      </c>
+      <c r="D170" t="n">
+        <v>169</v>
+      </c>
+      <c r="E170" t="s">
+        <v>338</v>
+      </c>
+      <c r="F170" t="s">
+        <v>339</v>
+      </c>
+      <c r="G170" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>0</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1</v>
+      </c>
+      <c r="D171" t="n">
+        <v>170</v>
+      </c>
+      <c r="E171" t="s">
+        <v>340</v>
+      </c>
+      <c r="F171" t="s">
+        <v>341</v>
+      </c>
+      <c r="G171" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>0</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1</v>
+      </c>
+      <c r="D172" t="n">
+        <v>171</v>
+      </c>
+      <c r="E172" t="s">
+        <v>342</v>
+      </c>
+      <c r="F172" t="s">
+        <v>343</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>0</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1</v>
+      </c>
+      <c r="D173" t="n">
+        <v>172</v>
+      </c>
+      <c r="E173" t="s">
+        <v>344</v>
+      </c>
+      <c r="F173" t="s">
+        <v>345</v>
+      </c>
+      <c r="G173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>0</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1</v>
+      </c>
+      <c r="D174" t="n">
+        <v>173</v>
+      </c>
+      <c r="E174" t="s">
+        <v>346</v>
+      </c>
+      <c r="F174" t="s">
+        <v>347</v>
+      </c>
+      <c r="G174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>0</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1</v>
+      </c>
+      <c r="D175" t="n">
+        <v>174</v>
+      </c>
+      <c r="E175" t="s">
+        <v>348</v>
+      </c>
+      <c r="F175" t="s">
+        <v>349</v>
+      </c>
+      <c r="G175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>0</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1</v>
+      </c>
+      <c r="D176" t="n">
+        <v>175</v>
+      </c>
+      <c r="E176" t="s">
+        <v>350</v>
+      </c>
+      <c r="F176" t="s">
+        <v>351</v>
+      </c>
+      <c r="G176" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>0</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1</v>
+      </c>
+      <c r="D177" t="n">
+        <v>176</v>
+      </c>
+      <c r="E177" t="s">
+        <v>352</v>
+      </c>
+      <c r="F177" t="s">
+        <v>353</v>
+      </c>
+      <c r="G177" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>0</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1</v>
+      </c>
+      <c r="D178" t="n">
+        <v>177</v>
+      </c>
+      <c r="E178" t="s">
+        <v>354</v>
+      </c>
+      <c r="F178" t="s">
+        <v>355</v>
+      </c>
+      <c r="G178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>0</v>
+      </c>
+      <c r="C179" t="s">
+        <v>1</v>
+      </c>
+      <c r="D179" t="n">
+        <v>178</v>
+      </c>
+      <c r="E179" t="s">
+        <v>356</v>
+      </c>
+      <c r="F179" t="s">
+        <v>357</v>
+      </c>
+      <c r="G179" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>0</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1</v>
+      </c>
+      <c r="D180" t="n">
+        <v>179</v>
+      </c>
+      <c r="E180" t="s">
+        <v>358</v>
+      </c>
+      <c r="F180" t="s">
+        <v>359</v>
+      </c>
+      <c r="G180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>0</v>
+      </c>
+      <c r="C181" t="s">
+        <v>1</v>
+      </c>
+      <c r="D181" t="n">
+        <v>180</v>
+      </c>
+      <c r="E181" t="s">
+        <v>360</v>
+      </c>
+      <c r="F181" t="s">
+        <v>361</v>
+      </c>
+      <c r="G181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>0</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1</v>
+      </c>
+      <c r="D182" t="n">
+        <v>181</v>
+      </c>
+      <c r="E182" t="s">
+        <v>362</v>
+      </c>
+      <c r="F182" t="s">
+        <v>363</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>0</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1</v>
+      </c>
+      <c r="D183" t="n">
+        <v>182</v>
+      </c>
+      <c r="E183" t="s">
+        <v>364</v>
+      </c>
+      <c r="F183" t="s">
+        <v>365</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>0</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1</v>
+      </c>
+      <c r="D184" t="n">
+        <v>183</v>
+      </c>
+      <c r="E184" t="s">
+        <v>366</v>
+      </c>
+      <c r="F184" t="s">
+        <v>367</v>
+      </c>
+      <c r="G184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>0</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1</v>
+      </c>
+      <c r="D185" t="n">
+        <v>184</v>
+      </c>
+      <c r="E185" t="s">
+        <v>368</v>
+      </c>
+      <c r="F185" t="s">
+        <v>369</v>
+      </c>
+      <c r="G185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>0</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1</v>
+      </c>
+      <c r="D186" t="n">
+        <v>185</v>
+      </c>
+      <c r="E186" t="s">
+        <v>370</v>
+      </c>
+      <c r="F186" t="s">
+        <v>371</v>
+      </c>
+      <c r="G186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>0</v>
+      </c>
+      <c r="C187" t="s">
+        <v>1</v>
+      </c>
+      <c r="D187" t="n">
+        <v>186</v>
+      </c>
+      <c r="E187" t="s">
+        <v>372</v>
+      </c>
+      <c r="F187" t="s">
+        <v>373</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>0</v>
+      </c>
+      <c r="C188" t="s">
+        <v>1</v>
+      </c>
+      <c r="D188" t="n">
+        <v>187</v>
+      </c>
+      <c r="E188" t="s">
+        <v>374</v>
+      </c>
+      <c r="F188" t="s">
+        <v>375</v>
+      </c>
+      <c r="G188" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>0</v>
+      </c>
+      <c r="C189" t="s">
+        <v>1</v>
+      </c>
+      <c r="D189" t="n">
+        <v>188</v>
+      </c>
+      <c r="E189" t="s">
+        <v>376</v>
+      </c>
+      <c r="F189" t="s">
+        <v>377</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>0</v>
+      </c>
+      <c r="C190" t="s">
+        <v>1</v>
+      </c>
+      <c r="D190" t="n">
+        <v>189</v>
+      </c>
+      <c r="E190" t="s">
+        <v>378</v>
+      </c>
+      <c r="F190" t="s">
+        <v>379</v>
+      </c>
+      <c r="G190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>0</v>
+      </c>
+      <c r="C191" t="s">
+        <v>1</v>
+      </c>
+      <c r="D191" t="n">
+        <v>190</v>
+      </c>
+      <c r="E191" t="s">
+        <v>380</v>
+      </c>
+      <c r="F191" t="s">
+        <v>381</v>
+      </c>
+      <c r="G191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>0</v>
+      </c>
+      <c r="C192" t="s">
+        <v>1</v>
+      </c>
+      <c r="D192" t="n">
+        <v>191</v>
+      </c>
+      <c r="E192" t="s">
+        <v>382</v>
+      </c>
+      <c r="F192" t="s">
+        <v>383</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>0</v>
+      </c>
+      <c r="C193" t="s">
+        <v>1</v>
+      </c>
+      <c r="D193" t="n">
+        <v>192</v>
+      </c>
+      <c r="E193" t="s">
+        <v>384</v>
+      </c>
+      <c r="F193" t="s">
+        <v>385</v>
+      </c>
+      <c r="G193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>0</v>
+      </c>
+      <c r="C194" t="s">
+        <v>1</v>
+      </c>
+      <c r="D194" t="n">
+        <v>193</v>
+      </c>
+      <c r="E194" t="s">
+        <v>386</v>
+      </c>
+      <c r="F194" t="s">
+        <v>387</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>0</v>
+      </c>
+      <c r="C195" t="s">
+        <v>1</v>
+      </c>
+      <c r="D195" t="n">
+        <v>194</v>
+      </c>
+      <c r="E195" t="s">
+        <v>388</v>
+      </c>
+      <c r="F195" t="s">
+        <v>389</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>0</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1</v>
+      </c>
+      <c r="D196" t="n">
+        <v>195</v>
+      </c>
+      <c r="E196" t="s">
+        <v>390</v>
+      </c>
+      <c r="F196" t="s">
+        <v>391</v>
+      </c>
+      <c r="G196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>0</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1</v>
+      </c>
+      <c r="D197" t="n">
+        <v>196</v>
+      </c>
+      <c r="E197" t="s">
+        <v>392</v>
+      </c>
+      <c r="F197" t="s">
+        <v>393</v>
+      </c>
+      <c r="G197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>0</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1</v>
+      </c>
+      <c r="D198" t="n">
+        <v>197</v>
+      </c>
+      <c r="E198" t="s">
+        <v>394</v>
+      </c>
+      <c r="F198" t="s">
+        <v>395</v>
+      </c>
+      <c r="G198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>0</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1</v>
+      </c>
+      <c r="D199" t="n">
+        <v>198</v>
+      </c>
+      <c r="E199" t="s">
+        <v>396</v>
+      </c>
+      <c r="F199" t="s">
+        <v>397</v>
+      </c>
+      <c r="G199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>0</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1</v>
+      </c>
+      <c r="D200" t="n">
+        <v>199</v>
+      </c>
+      <c r="E200" t="s">
+        <v>398</v>
+      </c>
+      <c r="F200" t="s">
+        <v>399</v>
+      </c>
+      <c r="G200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1</v>
+      </c>
+      <c r="D201" t="n">
+        <v>200</v>
+      </c>
+      <c r="E201" t="s">
+        <v>400</v>
+      </c>
+      <c r="F201" t="s">
+        <v>401</v>
+      </c>
+      <c r="G201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>0</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1</v>
+      </c>
+      <c r="D202" t="n">
+        <v>201</v>
+      </c>
+      <c r="E202" t="s">
+        <v>402</v>
+      </c>
+      <c r="F202" t="s">
+        <v>403</v>
+      </c>
+      <c r="G202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>0</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1</v>
+      </c>
+      <c r="D203" t="n">
+        <v>202</v>
+      </c>
+      <c r="E203" t="s">
+        <v>404</v>
+      </c>
+      <c r="F203" t="s">
+        <v>405</v>
+      </c>
+      <c r="G203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>0</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1</v>
+      </c>
+      <c r="D204" t="n">
+        <v>203</v>
+      </c>
+      <c r="E204" t="s">
+        <v>406</v>
+      </c>
+      <c r="F204" t="s">
+        <v>407</v>
+      </c>
+      <c r="G204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>0</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1</v>
+      </c>
+      <c r="D205" t="n">
+        <v>204</v>
+      </c>
+      <c r="E205" t="s">
+        <v>408</v>
+      </c>
+      <c r="F205" t="s">
+        <v>409</v>
+      </c>
+      <c r="G205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>0</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1</v>
+      </c>
+      <c r="D206" t="n">
+        <v>205</v>
+      </c>
+      <c r="E206" t="s">
+        <v>410</v>
+      </c>
+      <c r="F206" t="s">
+        <v>411</v>
+      </c>
+      <c r="G206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>0</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1</v>
+      </c>
+      <c r="D207" t="n">
+        <v>206</v>
+      </c>
+      <c r="E207" t="s">
+        <v>412</v>
+      </c>
+      <c r="F207" t="s">
+        <v>413</v>
+      </c>
+      <c r="G207" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>0</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1</v>
+      </c>
+      <c r="D208" t="n">
+        <v>207</v>
+      </c>
+      <c r="E208" t="s">
+        <v>414</v>
+      </c>
+      <c r="F208" t="s">
+        <v>415</v>
+      </c>
+      <c r="G208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
+        <v>0</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1</v>
+      </c>
+      <c r="D209" t="n">
+        <v>208</v>
+      </c>
+      <c r="E209" t="s">
+        <v>416</v>
+      </c>
+      <c r="F209" t="s">
+        <v>417</v>
+      </c>
+      <c r="G209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>0</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1</v>
+      </c>
+      <c r="D210" t="n">
+        <v>209</v>
+      </c>
+      <c r="E210" t="s">
+        <v>418</v>
+      </c>
+      <c r="F210" t="s">
+        <v>419</v>
+      </c>
+      <c r="G210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="s">
+        <v>0</v>
+      </c>
+      <c r="C211" t="s">
+        <v>1</v>
+      </c>
+      <c r="D211" t="n">
+        <v>210</v>
+      </c>
+      <c r="E211" t="s">
+        <v>420</v>
+      </c>
+      <c r="F211" t="s">
+        <v>421</v>
+      </c>
+      <c r="G211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>0</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1</v>
+      </c>
+      <c r="D212" t="n">
+        <v>211</v>
+      </c>
+      <c r="E212" t="s">
+        <v>422</v>
+      </c>
+      <c r="F212" t="s">
+        <v>423</v>
+      </c>
+      <c r="G212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="s">
+        <v>0</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1</v>
+      </c>
+      <c r="D213" t="n">
+        <v>212</v>
+      </c>
+      <c r="E213" t="s">
+        <v>424</v>
+      </c>
+      <c r="F213" t="s">
+        <v>425</v>
+      </c>
+      <c r="G213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
+        <v>0</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1</v>
+      </c>
+      <c r="D214" t="n">
+        <v>213</v>
+      </c>
+      <c r="E214" t="s">
+        <v>426</v>
+      </c>
+      <c r="F214" t="s">
+        <v>427</v>
+      </c>
+      <c r="G214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
+        <v>0</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1</v>
+      </c>
+      <c r="D215" t="n">
+        <v>214</v>
+      </c>
+      <c r="E215" t="s">
+        <v>428</v>
+      </c>
+      <c r="F215" t="s">
+        <v>429</v>
+      </c>
+      <c r="G215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
+        <v>0</v>
+      </c>
+      <c r="C216" t="s">
+        <v>1</v>
+      </c>
+      <c r="D216" t="n">
+        <v>215</v>
+      </c>
+      <c r="E216" t="s">
+        <v>430</v>
+      </c>
+      <c r="F216" t="s">
+        <v>431</v>
+      </c>
+      <c r="G216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="s">
+        <v>0</v>
+      </c>
+      <c r="C217" t="s">
+        <v>1</v>
+      </c>
+      <c r="D217" t="n">
+        <v>216</v>
+      </c>
+      <c r="E217" t="s">
+        <v>432</v>
+      </c>
+      <c r="F217" t="s">
+        <v>433</v>
+      </c>
+      <c r="G217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="s">
+        <v>0</v>
+      </c>
+      <c r="C218" t="s">
+        <v>1</v>
+      </c>
+      <c r="D218" t="n">
+        <v>217</v>
+      </c>
+      <c r="E218" t="s">
+        <v>434</v>
+      </c>
+      <c r="F218" t="s">
+        <v>435</v>
+      </c>
+      <c r="G218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="s">
+        <v>0</v>
+      </c>
+      <c r="C219" t="s">
+        <v>1</v>
+      </c>
+      <c r="D219" t="n">
+        <v>218</v>
+      </c>
+      <c r="E219" t="s">
+        <v>436</v>
+      </c>
+      <c r="F219" t="s">
+        <v>437</v>
+      </c>
+      <c r="G219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="s">
+        <v>0</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1</v>
+      </c>
+      <c r="D220" t="n">
+        <v>219</v>
+      </c>
+      <c r="E220" t="s">
+        <v>438</v>
+      </c>
+      <c r="F220" t="s">
+        <v>439</v>
+      </c>
+      <c r="G220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="s">
+        <v>0</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1</v>
+      </c>
+      <c r="D221" t="n">
+        <v>220</v>
+      </c>
+      <c r="E221" t="s">
+        <v>440</v>
+      </c>
+      <c r="F221" t="s">
+        <v>441</v>
+      </c>
+      <c r="G221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="s">
+        <v>0</v>
+      </c>
+      <c r="C222" t="s">
+        <v>1</v>
+      </c>
+      <c r="D222" t="n">
+        <v>221</v>
+      </c>
+      <c r="E222" t="s">
+        <v>442</v>
+      </c>
+      <c r="F222" t="s">
+        <v>443</v>
+      </c>
+      <c r="G222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="s">
+        <v>0</v>
+      </c>
+      <c r="C223" t="s">
+        <v>1</v>
+      </c>
+      <c r="D223" t="n">
+        <v>222</v>
+      </c>
+      <c r="E223" t="s">
+        <v>444</v>
+      </c>
+      <c r="F223" t="s">
+        <v>445</v>
+      </c>
+      <c r="G223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="s">
+        <v>0</v>
+      </c>
+      <c r="C224" t="s">
+        <v>1</v>
+      </c>
+      <c r="D224" t="n">
+        <v>223</v>
+      </c>
+      <c r="E224" t="s">
+        <v>446</v>
+      </c>
+      <c r="F224" t="s">
+        <v>447</v>
+      </c>
+      <c r="G224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="s">
+        <v>0</v>
+      </c>
+      <c r="C225" t="s">
+        <v>1</v>
+      </c>
+      <c r="D225" t="n">
+        <v>224</v>
+      </c>
+      <c r="E225" t="s">
+        <v>448</v>
+      </c>
+      <c r="F225" t="s">
+        <v>449</v>
+      </c>
+      <c r="G225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
+        <v>0</v>
+      </c>
+      <c r="C226" t="s">
+        <v>1</v>
+      </c>
+      <c r="D226" t="n">
+        <v>225</v>
+      </c>
+      <c r="E226" t="s">
+        <v>450</v>
+      </c>
+      <c r="F226" t="s">
+        <v>451</v>
+      </c>
+      <c r="G226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>0</v>
+      </c>
+      <c r="C227" t="s">
+        <v>1</v>
+      </c>
+      <c r="D227" t="n">
+        <v>226</v>
+      </c>
+      <c r="E227" t="s">
+        <v>452</v>
+      </c>
+      <c r="F227" t="s">
+        <v>453</v>
+      </c>
+      <c r="G227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>0</v>
+      </c>
+      <c r="C228" t="s">
+        <v>1</v>
+      </c>
+      <c r="D228" t="n">
+        <v>227</v>
+      </c>
+      <c r="E228" t="s">
+        <v>454</v>
+      </c>
+      <c r="F228" t="s">
+        <v>455</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="s">
+        <v>0</v>
+      </c>
+      <c r="C229" t="s">
+        <v>1</v>
+      </c>
+      <c r="D229" t="n">
+        <v>228</v>
+      </c>
+      <c r="E229" t="s">
+        <v>456</v>
+      </c>
+      <c r="F229" t="s">
+        <v>457</v>
+      </c>
+      <c r="G229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>0</v>
+      </c>
+      <c r="C230" t="s">
+        <v>1</v>
+      </c>
+      <c r="D230" t="n">
+        <v>229</v>
+      </c>
+      <c r="E230" t="s">
+        <v>458</v>
+      </c>
+      <c r="F230" t="s">
+        <v>459</v>
+      </c>
+      <c r="G230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="s">
+        <v>0</v>
+      </c>
+      <c r="C231" t="s">
+        <v>1</v>
+      </c>
+      <c r="D231" t="n">
+        <v>230</v>
+      </c>
+      <c r="E231" t="s">
+        <v>460</v>
+      </c>
+      <c r="F231" t="s">
+        <v>461</v>
+      </c>
+      <c r="G231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="s">
+        <v>0</v>
+      </c>
+      <c r="C232" t="s">
+        <v>1</v>
+      </c>
+      <c r="D232" t="n">
+        <v>231</v>
+      </c>
+      <c r="E232" t="s">
+        <v>462</v>
+      </c>
+      <c r="F232" t="s">
+        <v>463</v>
+      </c>
+      <c r="G232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="s">
+        <v>0</v>
+      </c>
+      <c r="C233" t="s">
+        <v>1</v>
+      </c>
+      <c r="D233" t="n">
+        <v>232</v>
+      </c>
+      <c r="E233" t="s">
+        <v>464</v>
+      </c>
+      <c r="F233" t="s">
+        <v>465</v>
+      </c>
+      <c r="G233" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="s">
+        <v>0</v>
+      </c>
+      <c r="C234" t="s">
+        <v>1</v>
+      </c>
+      <c r="D234" t="n">
+        <v>233</v>
+      </c>
+      <c r="E234" t="s">
+        <v>466</v>
+      </c>
+      <c r="F234" t="s">
+        <v>467</v>
+      </c>
+      <c r="G234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="s">
+        <v>0</v>
+      </c>
+      <c r="C235" t="s">
+        <v>1</v>
+      </c>
+      <c r="D235" t="n">
+        <v>234</v>
+      </c>
+      <c r="E235" t="s">
+        <v>468</v>
+      </c>
+      <c r="F235" t="s">
+        <v>469</v>
+      </c>
+      <c r="G235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="s">
+        <v>0</v>
+      </c>
+      <c r="C236" t="s">
+        <v>1</v>
+      </c>
+      <c r="D236" t="n">
+        <v>235</v>
+      </c>
+      <c r="E236" t="s">
+        <v>470</v>
+      </c>
+      <c r="F236" t="s">
+        <v>471</v>
+      </c>
+      <c r="G236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="s">
+        <v>0</v>
+      </c>
+      <c r="C237" t="s">
+        <v>1</v>
+      </c>
+      <c r="D237" t="n">
+        <v>236</v>
+      </c>
+      <c r="E237" t="s">
+        <v>472</v>
+      </c>
+      <c r="F237" t="s">
+        <v>473</v>
+      </c>
+      <c r="G237" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="s">
+        <v>0</v>
+      </c>
+      <c r="C238" t="s">
+        <v>1</v>
+      </c>
+      <c r="D238" t="n">
+        <v>237</v>
+      </c>
+      <c r="E238" t="s">
+        <v>474</v>
+      </c>
+      <c r="F238" t="s">
+        <v>475</v>
+      </c>
+      <c r="G238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
+        <v>0</v>
+      </c>
+      <c r="C239" t="s">
+        <v>1</v>
+      </c>
+      <c r="D239" t="n">
+        <v>238</v>
+      </c>
+      <c r="E239" t="s">
+        <v>476</v>
+      </c>
+      <c r="F239" t="s">
+        <v>477</v>
+      </c>
+      <c r="G239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>0</v>
+      </c>
+      <c r="C240" t="s">
+        <v>1</v>
+      </c>
+      <c r="D240" t="n">
+        <v>239</v>
+      </c>
+      <c r="E240" t="s">
+        <v>478</v>
+      </c>
+      <c r="F240" t="s">
+        <v>479</v>
+      </c>
+      <c r="G240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="s">
+        <v>0</v>
+      </c>
+      <c r="C241" t="s">
+        <v>1</v>
+      </c>
+      <c r="D241" t="n">
+        <v>240</v>
+      </c>
+      <c r="E241" t="s">
+        <v>480</v>
+      </c>
+      <c r="F241" t="s">
+        <v>481</v>
+      </c>
+      <c r="G241" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="s">
+        <v>0</v>
+      </c>
+      <c r="C242" t="s">
+        <v>1</v>
+      </c>
+      <c r="D242" t="n">
+        <v>241</v>
+      </c>
+      <c r="E242" t="s">
+        <v>482</v>
+      </c>
+      <c r="F242" t="s">
+        <v>483</v>
+      </c>
+      <c r="G242" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
+        <v>0</v>
+      </c>
+      <c r="C243" t="s">
+        <v>1</v>
+      </c>
+      <c r="D243" t="n">
+        <v>242</v>
+      </c>
+      <c r="E243" t="s">
+        <v>484</v>
+      </c>
+      <c r="F243" t="s">
+        <v>485</v>
+      </c>
+      <c r="G243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
+        <v>0</v>
+      </c>
+      <c r="C244" t="s">
+        <v>1</v>
+      </c>
+      <c r="D244" t="n">
+        <v>243</v>
+      </c>
+      <c r="E244" t="s">
+        <v>486</v>
+      </c>
+      <c r="F244" t="s">
+        <v>487</v>
+      </c>
+      <c r="G244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="s">
+        <v>0</v>
+      </c>
+      <c r="C245" t="s">
+        <v>1</v>
+      </c>
+      <c r="D245" t="n">
+        <v>244</v>
+      </c>
+      <c r="E245" t="s">
+        <v>488</v>
+      </c>
+      <c r="F245" t="s">
+        <v>489</v>
+      </c>
+      <c r="G245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="s">
+        <v>0</v>
+      </c>
+      <c r="C246" t="s">
+        <v>1</v>
+      </c>
+      <c r="D246" t="n">
+        <v>245</v>
+      </c>
+      <c r="E246" t="s">
+        <v>490</v>
+      </c>
+      <c r="F246" t="s">
+        <v>491</v>
+      </c>
+      <c r="G246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="s">
+        <v>0</v>
+      </c>
+      <c r="C247" t="s">
+        <v>1</v>
+      </c>
+      <c r="D247" t="n">
+        <v>246</v>
+      </c>
+      <c r="E247" t="s">
+        <v>492</v>
+      </c>
+      <c r="F247" t="s">
+        <v>493</v>
+      </c>
+      <c r="G247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="s">
+        <v>0</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1</v>
+      </c>
+      <c r="D248" t="n">
+        <v>247</v>
+      </c>
+      <c r="E248" t="s">
+        <v>494</v>
+      </c>
+      <c r="F248" t="s">
+        <v>495</v>
+      </c>
+      <c r="G248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="s">
+        <v>0</v>
+      </c>
+      <c r="C249" t="s">
+        <v>1</v>
+      </c>
+      <c r="D249" t="n">
+        <v>248</v>
+      </c>
+      <c r="E249" t="s">
+        <v>496</v>
+      </c>
+      <c r="F249" t="s">
+        <v>497</v>
+      </c>
+      <c r="G249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="s">
+        <v>0</v>
+      </c>
+      <c r="C250" t="s">
+        <v>1</v>
+      </c>
+      <c r="D250" t="n">
+        <v>249</v>
+      </c>
+      <c r="E250" t="s">
+        <v>498</v>
+      </c>
+      <c r="F250" t="s">
+        <v>499</v>
+      </c>
+      <c r="G250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="s">
+        <v>0</v>
+      </c>
+      <c r="C251" t="s">
+        <v>1</v>
+      </c>
+      <c r="D251" t="n">
+        <v>250</v>
+      </c>
+      <c r="E251" t="s">
+        <v>500</v>
+      </c>
+      <c r="F251" t="s">
+        <v>501</v>
+      </c>
+      <c r="G251" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="s">
+        <v>0</v>
+      </c>
+      <c r="C252" t="s">
+        <v>1</v>
+      </c>
+      <c r="D252" t="n">
+        <v>251</v>
+      </c>
+      <c r="E252" t="s">
+        <v>502</v>
+      </c>
+      <c r="F252" t="s">
+        <v>503</v>
+      </c>
+      <c r="G252" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="s">
+        <v>0</v>
+      </c>
+      <c r="C253" t="s">
+        <v>1</v>
+      </c>
+      <c r="D253" t="n">
         <v>252</v>
       </c>
-      <c r="F129" t="s">
+      <c r="E253" t="s">
+        <v>504</v>
+      </c>
+      <c r="F253" t="s">
+        <v>505</v>
+      </c>
+      <c r="G253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="s">
+        <v>0</v>
+      </c>
+      <c r="C254" t="s">
+        <v>1</v>
+      </c>
+      <c r="D254" t="n">
         <v>253</v>
       </c>
-      <c r="G129" t="n">
+      <c r="E254" t="s">
+        <v>506</v>
+      </c>
+      <c r="F254" t="s">
+        <v>507</v>
+      </c>
+      <c r="G254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="s">
+        <v>0</v>
+      </c>
+      <c r="C255" t="s">
+        <v>1</v>
+      </c>
+      <c r="D255" t="n">
+        <v>254</v>
+      </c>
+      <c r="E255" t="s">
+        <v>508</v>
+      </c>
+      <c r="F255" t="s">
+        <v>509</v>
+      </c>
+      <c r="G255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>0</v>
+      </c>
+      <c r="C256" t="s">
+        <v>1</v>
+      </c>
+      <c r="D256" t="n">
+        <v>255</v>
+      </c>
+      <c r="E256" t="s">
+        <v>510</v>
+      </c>
+      <c r="F256" t="s">
+        <v>511</v>
+      </c>
+      <c r="G256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="s">
+        <v>0</v>
+      </c>
+      <c r="C257" t="s">
+        <v>1</v>
+      </c>
+      <c r="D257" t="n">
+        <v>256</v>
+      </c>
+      <c r="E257" t="s">
+        <v>512</v>
+      </c>
+      <c r="F257" t="s">
+        <v>513</v>
+      </c>
+      <c r="G257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="s">
+        <v>0</v>
+      </c>
+      <c r="C258" t="s">
+        <v>1</v>
+      </c>
+      <c r="D258" t="n">
+        <v>257</v>
+      </c>
+      <c r="E258" t="s">
+        <v>514</v>
+      </c>
+      <c r="F258" t="s">
+        <v>515</v>
+      </c>
+      <c r="G258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="s">
+        <v>0</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1</v>
+      </c>
+      <c r="D259" t="n">
+        <v>258</v>
+      </c>
+      <c r="E259" t="s">
+        <v>516</v>
+      </c>
+      <c r="F259" t="s">
+        <v>517</v>
+      </c>
+      <c r="G259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="s">
+        <v>0</v>
+      </c>
+      <c r="C260" t="s">
+        <v>1</v>
+      </c>
+      <c r="D260" t="n">
+        <v>259</v>
+      </c>
+      <c r="E260" t="s">
+        <v>518</v>
+      </c>
+      <c r="F260" t="s">
+        <v>519</v>
+      </c>
+      <c r="G260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="s">
+        <v>0</v>
+      </c>
+      <c r="C261" t="s">
+        <v>1</v>
+      </c>
+      <c r="D261" t="n">
+        <v>260</v>
+      </c>
+      <c r="E261" t="s">
+        <v>520</v>
+      </c>
+      <c r="F261" t="s">
+        <v>521</v>
+      </c>
+      <c r="G261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="s">
+        <v>0</v>
+      </c>
+      <c r="C262" t="s">
+        <v>1</v>
+      </c>
+      <c r="D262" t="n">
+        <v>261</v>
+      </c>
+      <c r="E262" t="s">
+        <v>522</v>
+      </c>
+      <c r="F262" t="s">
+        <v>523</v>
+      </c>
+      <c r="G262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="s">
+        <v>0</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1</v>
+      </c>
+      <c r="D263" t="n">
+        <v>262</v>
+      </c>
+      <c r="E263" t="s">
+        <v>524</v>
+      </c>
+      <c r="F263" t="s">
+        <v>525</v>
+      </c>
+      <c r="G263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="s">
+        <v>0</v>
+      </c>
+      <c r="C264" t="s">
+        <v>1</v>
+      </c>
+      <c r="D264" t="n">
+        <v>263</v>
+      </c>
+      <c r="E264" t="s">
+        <v>526</v>
+      </c>
+      <c r="F264" t="s">
+        <v>527</v>
+      </c>
+      <c r="G264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="s">
+        <v>0</v>
+      </c>
+      <c r="C265" t="s">
+        <v>1</v>
+      </c>
+      <c r="D265" t="n">
+        <v>264</v>
+      </c>
+      <c r="E265" t="s">
+        <v>528</v>
+      </c>
+      <c r="F265" t="s">
+        <v>529</v>
+      </c>
+      <c r="G265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="s">
+        <v>0</v>
+      </c>
+      <c r="C266" t="s">
+        <v>1</v>
+      </c>
+      <c r="D266" t="n">
+        <v>265</v>
+      </c>
+      <c r="E266" t="s">
+        <v>530</v>
+      </c>
+      <c r="F266" t="s">
+        <v>531</v>
+      </c>
+      <c r="G266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="s">
+        <v>0</v>
+      </c>
+      <c r="C267" t="s">
+        <v>1</v>
+      </c>
+      <c r="D267" t="n">
+        <v>266</v>
+      </c>
+      <c r="E267" t="s">
+        <v>532</v>
+      </c>
+      <c r="F267" t="s">
+        <v>533</v>
+      </c>
+      <c r="G267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="s">
+        <v>0</v>
+      </c>
+      <c r="C268" t="s">
+        <v>1</v>
+      </c>
+      <c r="D268" t="n">
+        <v>267</v>
+      </c>
+      <c r="E268" t="s">
+        <v>534</v>
+      </c>
+      <c r="F268" t="s">
+        <v>535</v>
+      </c>
+      <c r="G268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="s">
+        <v>0</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1</v>
+      </c>
+      <c r="D269" t="n">
+        <v>268</v>
+      </c>
+      <c r="E269" t="s">
+        <v>536</v>
+      </c>
+      <c r="F269" t="s">
+        <v>537</v>
+      </c>
+      <c r="G269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="s">
+        <v>0</v>
+      </c>
+      <c r="C270" t="s">
+        <v>1</v>
+      </c>
+      <c r="D270" t="n">
+        <v>269</v>
+      </c>
+      <c r="E270" t="s">
+        <v>538</v>
+      </c>
+      <c r="F270" t="s">
+        <v>539</v>
+      </c>
+      <c r="G270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="s">
+        <v>0</v>
+      </c>
+      <c r="C271" t="s">
+        <v>1</v>
+      </c>
+      <c r="D271" t="n">
+        <v>270</v>
+      </c>
+      <c r="E271" t="s">
+        <v>540</v>
+      </c>
+      <c r="F271" t="s">
+        <v>541</v>
+      </c>
+      <c r="G271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="s">
+        <v>0</v>
+      </c>
+      <c r="C272" t="s">
+        <v>1</v>
+      </c>
+      <c r="D272" t="n">
+        <v>271</v>
+      </c>
+      <c r="E272" t="s">
+        <v>542</v>
+      </c>
+      <c r="F272" t="s">
+        <v>543</v>
+      </c>
+      <c r="G272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="s">
+        <v>0</v>
+      </c>
+      <c r="C273" t="s">
+        <v>1</v>
+      </c>
+      <c r="D273" t="n">
+        <v>272</v>
+      </c>
+      <c r="E273" t="s">
+        <v>544</v>
+      </c>
+      <c r="F273" t="s">
+        <v>545</v>
+      </c>
+      <c r="G273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="s">
+        <v>0</v>
+      </c>
+      <c r="C274" t="s">
+        <v>1</v>
+      </c>
+      <c r="D274" t="n">
+        <v>273</v>
+      </c>
+      <c r="E274" t="s">
+        <v>546</v>
+      </c>
+      <c r="F274" t="s">
+        <v>547</v>
+      </c>
+      <c r="G274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="s">
+        <v>0</v>
+      </c>
+      <c r="C275" t="s">
+        <v>1</v>
+      </c>
+      <c r="D275" t="n">
+        <v>274</v>
+      </c>
+      <c r="E275" t="s">
+        <v>548</v>
+      </c>
+      <c r="F275" t="s">
+        <v>549</v>
+      </c>
+      <c r="G275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="s">
+        <v>0</v>
+      </c>
+      <c r="C276" t="s">
+        <v>1</v>
+      </c>
+      <c r="D276" t="n">
+        <v>275</v>
+      </c>
+      <c r="E276" t="s">
+        <v>550</v>
+      </c>
+      <c r="F276" t="s">
+        <v>551</v>
+      </c>
+      <c r="G276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="s">
+        <v>0</v>
+      </c>
+      <c r="C277" t="s">
+        <v>1</v>
+      </c>
+      <c r="D277" t="n">
+        <v>276</v>
+      </c>
+      <c r="E277" t="s">
+        <v>552</v>
+      </c>
+      <c r="F277" t="s">
+        <v>553</v>
+      </c>
+      <c r="G277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="s">
+        <v>0</v>
+      </c>
+      <c r="C278" t="s">
+        <v>1</v>
+      </c>
+      <c r="D278" t="n">
+        <v>277</v>
+      </c>
+      <c r="E278" t="s">
+        <v>554</v>
+      </c>
+      <c r="F278" t="s">
+        <v>555</v>
+      </c>
+      <c r="G278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="s">
+        <v>0</v>
+      </c>
+      <c r="C279" t="s">
+        <v>1</v>
+      </c>
+      <c r="D279" t="n">
+        <v>278</v>
+      </c>
+      <c r="E279" t="s">
+        <v>556</v>
+      </c>
+      <c r="F279" t="s">
+        <v>557</v>
+      </c>
+      <c r="G279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="s">
+        <v>0</v>
+      </c>
+      <c r="C280" t="s">
+        <v>1</v>
+      </c>
+      <c r="D280" t="n">
+        <v>279</v>
+      </c>
+      <c r="E280" t="s">
+        <v>558</v>
+      </c>
+      <c r="F280" t="s">
+        <v>559</v>
+      </c>
+      <c r="G280" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="s">
+        <v>0</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1</v>
+      </c>
+      <c r="D281" t="n">
+        <v>280</v>
+      </c>
+      <c r="E281" t="s">
+        <v>560</v>
+      </c>
+      <c r="F281" t="s">
+        <v>561</v>
+      </c>
+      <c r="G281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="s">
+        <v>0</v>
+      </c>
+      <c r="C282" t="s">
+        <v>1</v>
+      </c>
+      <c r="D282" t="n">
+        <v>281</v>
+      </c>
+      <c r="E282" t="s">
+        <v>562</v>
+      </c>
+      <c r="F282" t="s">
+        <v>563</v>
+      </c>
+      <c r="G282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="s">
+        <v>0</v>
+      </c>
+      <c r="C283" t="s">
+        <v>1</v>
+      </c>
+      <c r="D283" t="n">
+        <v>282</v>
+      </c>
+      <c r="E283" t="s">
+        <v>564</v>
+      </c>
+      <c r="F283" t="s">
+        <v>565</v>
+      </c>
+      <c r="G283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="s">
+        <v>0</v>
+      </c>
+      <c r="C284" t="s">
+        <v>1</v>
+      </c>
+      <c r="D284" t="n">
+        <v>283</v>
+      </c>
+      <c r="E284" t="s">
+        <v>566</v>
+      </c>
+      <c r="F284" t="s">
+        <v>567</v>
+      </c>
+      <c r="G284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="s">
+        <v>0</v>
+      </c>
+      <c r="C285" t="s">
+        <v>1</v>
+      </c>
+      <c r="D285" t="n">
+        <v>284</v>
+      </c>
+      <c r="E285" t="s">
+        <v>568</v>
+      </c>
+      <c r="F285" t="s">
+        <v>569</v>
+      </c>
+      <c r="G285" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="s">
+        <v>0</v>
+      </c>
+      <c r="C286" t="s">
+        <v>1</v>
+      </c>
+      <c r="D286" t="n">
+        <v>285</v>
+      </c>
+      <c r="E286" t="s">
+        <v>570</v>
+      </c>
+      <c r="F286" t="s">
+        <v>571</v>
+      </c>
+      <c r="G286" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="s">
+        <v>0</v>
+      </c>
+      <c r="C287" t="s">
+        <v>1</v>
+      </c>
+      <c r="D287" t="n">
+        <v>286</v>
+      </c>
+      <c r="E287" t="s">
+        <v>572</v>
+      </c>
+      <c r="F287" t="s">
+        <v>573</v>
+      </c>
+      <c r="G287" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="s">
+        <v>0</v>
+      </c>
+      <c r="C288" t="s">
+        <v>1</v>
+      </c>
+      <c r="D288" t="n">
+        <v>287</v>
+      </c>
+      <c r="E288" t="s">
+        <v>574</v>
+      </c>
+      <c r="F288" t="s">
+        <v>575</v>
+      </c>
+      <c r="G288" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="s">
+        <v>0</v>
+      </c>
+      <c r="C289" t="s">
+        <v>1</v>
+      </c>
+      <c r="D289" t="n">
+        <v>288</v>
+      </c>
+      <c r="E289" t="s">
+        <v>576</v>
+      </c>
+      <c r="F289" t="s">
+        <v>577</v>
+      </c>
+      <c r="G289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="s">
+        <v>0</v>
+      </c>
+      <c r="C290" t="s">
+        <v>1</v>
+      </c>
+      <c r="D290" t="n">
+        <v>289</v>
+      </c>
+      <c r="E290" t="s">
+        <v>578</v>
+      </c>
+      <c r="F290" t="s">
+        <v>579</v>
+      </c>
+      <c r="G290" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="s">
+        <v>0</v>
+      </c>
+      <c r="C291" t="s">
+        <v>1</v>
+      </c>
+      <c r="D291" t="n">
+        <v>290</v>
+      </c>
+      <c r="E291" t="s">
+        <v>580</v>
+      </c>
+      <c r="F291" t="s">
+        <v>581</v>
+      </c>
+      <c r="G291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="s">
+        <v>0</v>
+      </c>
+      <c r="C292" t="s">
+        <v>1</v>
+      </c>
+      <c r="D292" t="n">
+        <v>291</v>
+      </c>
+      <c r="E292" t="s">
+        <v>582</v>
+      </c>
+      <c r="F292" t="s">
+        <v>583</v>
+      </c>
+      <c r="G292" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="s">
+        <v>0</v>
+      </c>
+      <c r="C293" t="s">
+        <v>1</v>
+      </c>
+      <c r="D293" t="n">
+        <v>292</v>
+      </c>
+      <c r="E293" t="s">
+        <v>584</v>
+      </c>
+      <c r="F293" t="s">
+        <v>585</v>
+      </c>
+      <c r="G293" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="s">
+        <v>0</v>
+      </c>
+      <c r="C294" t="s">
+        <v>1</v>
+      </c>
+      <c r="D294" t="n">
+        <v>293</v>
+      </c>
+      <c r="E294" t="s">
+        <v>586</v>
+      </c>
+      <c r="F294" t="s">
+        <v>587</v>
+      </c>
+      <c r="G294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="s">
+        <v>0</v>
+      </c>
+      <c r="C295" t="s">
+        <v>1</v>
+      </c>
+      <c r="D295" t="n">
+        <v>294</v>
+      </c>
+      <c r="E295" t="s">
+        <v>588</v>
+      </c>
+      <c r="F295" t="s">
+        <v>589</v>
+      </c>
+      <c r="G295" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="s">
+        <v>0</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1</v>
+      </c>
+      <c r="D296" t="n">
+        <v>295</v>
+      </c>
+      <c r="E296" t="s">
+        <v>590</v>
+      </c>
+      <c r="F296" t="s">
+        <v>591</v>
+      </c>
+      <c r="G296" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="s">
+        <v>0</v>
+      </c>
+      <c r="C297" t="s">
+        <v>1</v>
+      </c>
+      <c r="D297" t="n">
+        <v>296</v>
+      </c>
+      <c r="E297" t="s">
+        <v>592</v>
+      </c>
+      <c r="F297" t="s">
+        <v>593</v>
+      </c>
+      <c r="G297" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="s">
+        <v>0</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1</v>
+      </c>
+      <c r="D298" t="n">
+        <v>297</v>
+      </c>
+      <c r="E298" t="s">
+        <v>594</v>
+      </c>
+      <c r="F298" t="s">
+        <v>595</v>
+      </c>
+      <c r="G298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="s">
+        <v>0</v>
+      </c>
+      <c r="C299" t="s">
+        <v>1</v>
+      </c>
+      <c r="D299" t="n">
+        <v>298</v>
+      </c>
+      <c r="E299" t="s">
+        <v>596</v>
+      </c>
+      <c r="F299" t="s">
+        <v>597</v>
+      </c>
+      <c r="G299" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="s">
+        <v>0</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1</v>
+      </c>
+      <c r="D300" t="n">
+        <v>299</v>
+      </c>
+      <c r="E300" t="s">
+        <v>598</v>
+      </c>
+      <c r="F300" t="s">
+        <v>599</v>
+      </c>
+      <c r="G300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="s">
+        <v>0</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1</v>
+      </c>
+      <c r="D301" t="n">
+        <v>300</v>
+      </c>
+      <c r="E301" t="s">
+        <v>600</v>
+      </c>
+      <c r="F301" t="s">
+        <v>601</v>
+      </c>
+      <c r="G301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="s">
+        <v>0</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1</v>
+      </c>
+      <c r="D302" t="n">
+        <v>301</v>
+      </c>
+      <c r="E302" t="s">
+        <v>602</v>
+      </c>
+      <c r="F302" t="s">
+        <v>603</v>
+      </c>
+      <c r="G302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="s">
+        <v>0</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1</v>
+      </c>
+      <c r="D303" t="n">
+        <v>302</v>
+      </c>
+      <c r="E303" t="s">
+        <v>604</v>
+      </c>
+      <c r="F303" t="s">
+        <v>605</v>
+      </c>
+      <c r="G303" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="s">
+        <v>0</v>
+      </c>
+      <c r="C304" t="s">
+        <v>1</v>
+      </c>
+      <c r="D304" t="n">
+        <v>303</v>
+      </c>
+      <c r="E304" t="s">
+        <v>606</v>
+      </c>
+      <c r="F304" t="s">
+        <v>607</v>
+      </c>
+      <c r="G304" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="s">
+        <v>0</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1</v>
+      </c>
+      <c r="D305" t="n">
+        <v>304</v>
+      </c>
+      <c r="E305" t="s">
+        <v>608</v>
+      </c>
+      <c r="F305" t="s">
+        <v>609</v>
+      </c>
+      <c r="G305" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="s">
+        <v>0</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1</v>
+      </c>
+      <c r="D306" t="n">
+        <v>305</v>
+      </c>
+      <c r="E306" t="s">
+        <v>610</v>
+      </c>
+      <c r="F306" t="s">
+        <v>611</v>
+      </c>
+      <c r="G306" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="s">
+        <v>0</v>
+      </c>
+      <c r="C307" t="s">
+        <v>1</v>
+      </c>
+      <c r="D307" t="n">
+        <v>306</v>
+      </c>
+      <c r="E307" t="s">
+        <v>612</v>
+      </c>
+      <c r="F307" t="s">
+        <v>613</v>
+      </c>
+      <c r="G307" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="s">
+        <v>0</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1</v>
+      </c>
+      <c r="D308" t="n">
+        <v>307</v>
+      </c>
+      <c r="E308" t="s">
+        <v>614</v>
+      </c>
+      <c r="F308" t="s">
+        <v>615</v>
+      </c>
+      <c r="G308" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="s">
+        <v>0</v>
+      </c>
+      <c r="C309" t="s">
+        <v>1</v>
+      </c>
+      <c r="D309" t="n">
+        <v>308</v>
+      </c>
+      <c r="E309" t="s">
+        <v>616</v>
+      </c>
+      <c r="F309" t="s">
+        <v>617</v>
+      </c>
+      <c r="G309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="s">
+        <v>0</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1</v>
+      </c>
+      <c r="D310" t="n">
+        <v>309</v>
+      </c>
+      <c r="E310" t="s">
+        <v>618</v>
+      </c>
+      <c r="F310" t="s">
+        <v>619</v>
+      </c>
+      <c r="G310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="s">
+        <v>0</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1</v>
+      </c>
+      <c r="D311" t="n">
+        <v>310</v>
+      </c>
+      <c r="E311" t="s">
+        <v>620</v>
+      </c>
+      <c r="F311" t="s">
+        <v>621</v>
+      </c>
+      <c r="G311" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="s">
+        <v>0</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1</v>
+      </c>
+      <c r="D312" t="n">
+        <v>311</v>
+      </c>
+      <c r="E312" t="s">
+        <v>622</v>
+      </c>
+      <c r="F312" t="s">
+        <v>623</v>
+      </c>
+      <c r="G312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="s">
+        <v>0</v>
+      </c>
+      <c r="C313" t="s">
+        <v>1</v>
+      </c>
+      <c r="D313" t="n">
+        <v>312</v>
+      </c>
+      <c r="E313" t="s">
+        <v>624</v>
+      </c>
+      <c r="F313" t="s">
+        <v>625</v>
+      </c>
+      <c r="G313" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="s">
+        <v>0</v>
+      </c>
+      <c r="C314" t="s">
+        <v>1</v>
+      </c>
+      <c r="D314" t="n">
+        <v>313</v>
+      </c>
+      <c r="E314" t="s">
+        <v>626</v>
+      </c>
+      <c r="F314" t="s">
+        <v>627</v>
+      </c>
+      <c r="G314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="s">
+        <v>0</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1</v>
+      </c>
+      <c r="D315" t="n">
+        <v>314</v>
+      </c>
+      <c r="E315" t="s">
+        <v>628</v>
+      </c>
+      <c r="F315" t="s">
+        <v>629</v>
+      </c>
+      <c r="G315" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="s">
+        <v>0</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1</v>
+      </c>
+      <c r="D316" t="n">
+        <v>315</v>
+      </c>
+      <c r="E316" t="s">
+        <v>630</v>
+      </c>
+      <c r="F316" t="s">
+        <v>631</v>
+      </c>
+      <c r="G316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="s">
+        <v>0</v>
+      </c>
+      <c r="C317" t="s">
+        <v>1</v>
+      </c>
+      <c r="D317" t="n">
+        <v>316</v>
+      </c>
+      <c r="E317" t="s">
+        <v>632</v>
+      </c>
+      <c r="F317" t="s">
+        <v>633</v>
+      </c>
+      <c r="G317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="s">
+        <v>0</v>
+      </c>
+      <c r="C318" t="s">
+        <v>1</v>
+      </c>
+      <c r="D318" t="n">
+        <v>317</v>
+      </c>
+      <c r="E318" t="s">
+        <v>634</v>
+      </c>
+      <c r="F318" t="s">
+        <v>635</v>
+      </c>
+      <c r="G318" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="s">
+        <v>0</v>
+      </c>
+      <c r="C319" t="s">
+        <v>1</v>
+      </c>
+      <c r="D319" t="n">
+        <v>318</v>
+      </c>
+      <c r="E319" t="s">
+        <v>636</v>
+      </c>
+      <c r="F319" t="s">
+        <v>637</v>
+      </c>
+      <c r="G319" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="s">
+        <v>0</v>
+      </c>
+      <c r="C320" t="s">
+        <v>1</v>
+      </c>
+      <c r="D320" t="n">
+        <v>319</v>
+      </c>
+      <c r="E320" t="s">
+        <v>638</v>
+      </c>
+      <c r="F320" t="s">
+        <v>639</v>
+      </c>
+      <c r="G320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="s">
+        <v>0</v>
+      </c>
+      <c r="C321" t="s">
+        <v>1</v>
+      </c>
+      <c r="D321" t="n">
+        <v>320</v>
+      </c>
+      <c r="E321" t="s">
+        <v>640</v>
+      </c>
+      <c r="F321" t="s">
+        <v>641</v>
+      </c>
+      <c r="G321" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="s">
+        <v>0</v>
+      </c>
+      <c r="C322" t="s">
+        <v>1</v>
+      </c>
+      <c r="D322" t="n">
+        <v>321</v>
+      </c>
+      <c r="E322" t="s">
+        <v>642</v>
+      </c>
+      <c r="F322" t="s">
+        <v>643</v>
+      </c>
+      <c r="G322" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="s">
+        <v>0</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1</v>
+      </c>
+      <c r="D323" t="n">
+        <v>322</v>
+      </c>
+      <c r="E323" t="s">
+        <v>644</v>
+      </c>
+      <c r="F323" t="s">
+        <v>645</v>
+      </c>
+      <c r="G323" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="s">
+        <v>0</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1</v>
+      </c>
+      <c r="D324" t="n">
+        <v>323</v>
+      </c>
+      <c r="E324" t="s">
+        <v>646</v>
+      </c>
+      <c r="F324" t="s">
+        <v>647</v>
+      </c>
+      <c r="G324" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="s">
+        <v>0</v>
+      </c>
+      <c r="C325" t="s">
+        <v>1</v>
+      </c>
+      <c r="D325" t="n">
+        <v>324</v>
+      </c>
+      <c r="E325" t="s">
+        <v>648</v>
+      </c>
+      <c r="F325" t="s">
+        <v>649</v>
+      </c>
+      <c r="G325" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="s">
+        <v>0</v>
+      </c>
+      <c r="C326" t="s">
+        <v>1</v>
+      </c>
+      <c r="D326" t="n">
+        <v>325</v>
+      </c>
+      <c r="E326" t="s">
+        <v>650</v>
+      </c>
+      <c r="F326" t="s">
+        <v>651</v>
+      </c>
+      <c r="G326" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="s">
+        <v>0</v>
+      </c>
+      <c r="C327" t="s">
+        <v>1</v>
+      </c>
+      <c r="D327" t="n">
+        <v>326</v>
+      </c>
+      <c r="E327" t="s">
+        <v>652</v>
+      </c>
+      <c r="F327" t="s">
+        <v>653</v>
+      </c>
+      <c r="G327" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="s">
+        <v>0</v>
+      </c>
+      <c r="C328" t="s">
+        <v>1</v>
+      </c>
+      <c r="D328" t="n">
+        <v>327</v>
+      </c>
+      <c r="E328" t="s">
+        <v>654</v>
+      </c>
+      <c r="F328" t="s">
+        <v>655</v>
+      </c>
+      <c r="G328" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="s">
+        <v>0</v>
+      </c>
+      <c r="C329" t="s">
+        <v>1</v>
+      </c>
+      <c r="D329" t="n">
+        <v>328</v>
+      </c>
+      <c r="E329" t="s">
+        <v>656</v>
+      </c>
+      <c r="F329" t="s">
+        <v>657</v>
+      </c>
+      <c r="G329" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="s">
+        <v>0</v>
+      </c>
+      <c r="C330" t="s">
+        <v>1</v>
+      </c>
+      <c r="D330" t="n">
+        <v>329</v>
+      </c>
+      <c r="E330" t="s">
+        <v>658</v>
+      </c>
+      <c r="F330" t="s">
+        <v>659</v>
+      </c>
+      <c r="G330" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="s">
+        <v>0</v>
+      </c>
+      <c r="C331" t="s">
+        <v>1</v>
+      </c>
+      <c r="D331" t="n">
+        <v>330</v>
+      </c>
+      <c r="E331" t="s">
+        <v>660</v>
+      </c>
+      <c r="F331" t="s">
+        <v>661</v>
+      </c>
+      <c r="G331" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="s">
+        <v>0</v>
+      </c>
+      <c r="C332" t="s">
+        <v>1</v>
+      </c>
+      <c r="D332" t="n">
+        <v>331</v>
+      </c>
+      <c r="E332" t="s">
+        <v>662</v>
+      </c>
+      <c r="F332" t="s">
+        <v>663</v>
+      </c>
+      <c r="G332" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="s">
+        <v>0</v>
+      </c>
+      <c r="C333" t="s">
+        <v>1</v>
+      </c>
+      <c r="D333" t="n">
+        <v>332</v>
+      </c>
+      <c r="E333" t="s">
+        <v>664</v>
+      </c>
+      <c r="F333" t="s">
+        <v>665</v>
+      </c>
+      <c r="G333" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="s">
+        <v>0</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1</v>
+      </c>
+      <c r="D334" t="n">
+        <v>333</v>
+      </c>
+      <c r="E334" t="s">
+        <v>666</v>
+      </c>
+      <c r="F334" t="s">
+        <v>667</v>
+      </c>
+      <c r="G334" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="s">
+        <v>0</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1</v>
+      </c>
+      <c r="D335" t="n">
+        <v>334</v>
+      </c>
+      <c r="E335" t="s">
+        <v>668</v>
+      </c>
+      <c r="F335" t="s">
+        <v>669</v>
+      </c>
+      <c r="G335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="s">
+        <v>0</v>
+      </c>
+      <c r="C336" t="s">
+        <v>1</v>
+      </c>
+      <c r="D336" t="n">
+        <v>335</v>
+      </c>
+      <c r="E336" t="s">
+        <v>670</v>
+      </c>
+      <c r="F336" t="s">
+        <v>671</v>
+      </c>
+      <c r="G336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="s">
+        <v>0</v>
+      </c>
+      <c r="C337" t="s">
+        <v>1</v>
+      </c>
+      <c r="D337" t="n">
+        <v>336</v>
+      </c>
+      <c r="E337" t="s">
+        <v>672</v>
+      </c>
+      <c r="F337" t="s">
+        <v>673</v>
+      </c>
+      <c r="G337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="s">
+        <v>0</v>
+      </c>
+      <c r="C338" t="s">
+        <v>1</v>
+      </c>
+      <c r="D338" t="n">
+        <v>337</v>
+      </c>
+      <c r="E338" t="s">
+        <v>674</v>
+      </c>
+      <c r="F338" t="s">
+        <v>675</v>
+      </c>
+      <c r="G338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="s">
+        <v>0</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1</v>
+      </c>
+      <c r="D339" t="n">
+        <v>338</v>
+      </c>
+      <c r="E339" t="s">
+        <v>676</v>
+      </c>
+      <c r="F339" t="s">
+        <v>677</v>
+      </c>
+      <c r="G339" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="s">
+        <v>0</v>
+      </c>
+      <c r="C340" t="s">
+        <v>1</v>
+      </c>
+      <c r="D340" t="n">
+        <v>339</v>
+      </c>
+      <c r="E340" t="s">
+        <v>678</v>
+      </c>
+      <c r="F340" t="s">
+        <v>679</v>
+      </c>
+      <c r="G340" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="s">
+        <v>0</v>
+      </c>
+      <c r="C341" t="s">
+        <v>1</v>
+      </c>
+      <c r="D341" t="n">
+        <v>340</v>
+      </c>
+      <c r="E341" t="s">
+        <v>680</v>
+      </c>
+      <c r="F341" t="s">
+        <v>681</v>
+      </c>
+      <c r="G341" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="s">
+        <v>0</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1</v>
+      </c>
+      <c r="D342" t="n">
+        <v>341</v>
+      </c>
+      <c r="E342" t="s">
+        <v>682</v>
+      </c>
+      <c r="F342" t="s">
+        <v>683</v>
+      </c>
+      <c r="G342" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="s">
+        <v>0</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1</v>
+      </c>
+      <c r="D343" t="n">
+        <v>342</v>
+      </c>
+      <c r="E343" t="s">
+        <v>684</v>
+      </c>
+      <c r="F343" t="s">
+        <v>685</v>
+      </c>
+      <c r="G343" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="s">
+        <v>0</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1</v>
+      </c>
+      <c r="D344" t="n">
+        <v>343</v>
+      </c>
+      <c r="E344" t="s">
+        <v>686</v>
+      </c>
+      <c r="F344" t="s">
+        <v>687</v>
+      </c>
+      <c r="G344" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="s">
+        <v>0</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1</v>
+      </c>
+      <c r="D345" t="n">
+        <v>344</v>
+      </c>
+      <c r="E345" t="s">
+        <v>688</v>
+      </c>
+      <c r="F345" t="s">
+        <v>689</v>
+      </c>
+      <c r="G345" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="s">
+        <v>0</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1</v>
+      </c>
+      <c r="D346" t="n">
+        <v>345</v>
+      </c>
+      <c r="E346" t="s">
+        <v>690</v>
+      </c>
+      <c r="F346" t="s">
+        <v>691</v>
+      </c>
+      <c r="G346" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="s">
+        <v>0</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1</v>
+      </c>
+      <c r="D347" t="n">
+        <v>346</v>
+      </c>
+      <c r="E347" t="s">
+        <v>692</v>
+      </c>
+      <c r="F347" t="s">
+        <v>693</v>
+      </c>
+      <c r="G347" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="s">
+        <v>0</v>
+      </c>
+      <c r="C348" t="s">
+        <v>1</v>
+      </c>
+      <c r="D348" t="n">
+        <v>347</v>
+      </c>
+      <c r="E348" t="s">
+        <v>694</v>
+      </c>
+      <c r="F348" t="s">
+        <v>695</v>
+      </c>
+      <c r="G348" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="s">
+        <v>0</v>
+      </c>
+      <c r="C349" t="s">
+        <v>1</v>
+      </c>
+      <c r="D349" t="n">
+        <v>348</v>
+      </c>
+      <c r="E349" t="s">
+        <v>696</v>
+      </c>
+      <c r="F349" t="s">
+        <v>697</v>
+      </c>
+      <c r="G349" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="s">
+        <v>0</v>
+      </c>
+      <c r="C350" t="s">
+        <v>1</v>
+      </c>
+      <c r="D350" t="n">
+        <v>349</v>
+      </c>
+      <c r="E350" t="s">
+        <v>698</v>
+      </c>
+      <c r="F350" t="s">
+        <v>699</v>
+      </c>
+      <c r="G350" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="s">
+        <v>0</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1</v>
+      </c>
+      <c r="D351" t="n">
+        <v>350</v>
+      </c>
+      <c r="E351" t="s">
+        <v>700</v>
+      </c>
+      <c r="F351" t="s">
+        <v>701</v>
+      </c>
+      <c r="G351" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="s">
+        <v>0</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1</v>
+      </c>
+      <c r="D352" t="n">
+        <v>351</v>
+      </c>
+      <c r="E352" t="s">
+        <v>702</v>
+      </c>
+      <c r="F352" t="s">
+        <v>703</v>
+      </c>
+      <c r="G352" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="s">
+        <v>0</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1</v>
+      </c>
+      <c r="D353" t="n">
+        <v>352</v>
+      </c>
+      <c r="E353" t="s">
+        <v>704</v>
+      </c>
+      <c r="F353" t="s">
+        <v>705</v>
+      </c>
+      <c r="G353" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="s">
+        <v>0</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1</v>
+      </c>
+      <c r="D354" t="n">
+        <v>353</v>
+      </c>
+      <c r="E354" t="s">
+        <v>706</v>
+      </c>
+      <c r="F354" t="s">
+        <v>707</v>
+      </c>
+      <c r="G354" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="s">
+        <v>0</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1</v>
+      </c>
+      <c r="D355" t="n">
+        <v>354</v>
+      </c>
+      <c r="E355" t="s">
+        <v>708</v>
+      </c>
+      <c r="F355" t="s">
+        <v>709</v>
+      </c>
+      <c r="G355" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="s">
+        <v>0</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1</v>
+      </c>
+      <c r="D356" t="n">
+        <v>355</v>
+      </c>
+      <c r="E356" t="s">
+        <v>710</v>
+      </c>
+      <c r="F356" t="s">
+        <v>711</v>
+      </c>
+      <c r="G356" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="s">
+        <v>0</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1</v>
+      </c>
+      <c r="D357" t="n">
+        <v>356</v>
+      </c>
+      <c r="E357" t="s">
+        <v>712</v>
+      </c>
+      <c r="F357" t="s">
+        <v>713</v>
+      </c>
+      <c r="G357" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="s">
+        <v>0</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1</v>
+      </c>
+      <c r="D358" t="n">
+        <v>357</v>
+      </c>
+      <c r="E358" t="s">
+        <v>714</v>
+      </c>
+      <c r="F358" t="s">
+        <v>715</v>
+      </c>
+      <c r="G358" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="s">
+        <v>0</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1</v>
+      </c>
+      <c r="D359" t="n">
+        <v>358</v>
+      </c>
+      <c r="E359" t="s">
+        <v>716</v>
+      </c>
+      <c r="F359" t="s">
+        <v>717</v>
+      </c>
+      <c r="G359" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="s">
+        <v>0</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1</v>
+      </c>
+      <c r="D360" t="n">
+        <v>359</v>
+      </c>
+      <c r="E360" t="s">
+        <v>718</v>
+      </c>
+      <c r="F360" t="s">
+        <v>719</v>
+      </c>
+      <c r="G360" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="s">
+        <v>0</v>
+      </c>
+      <c r="C361" t="s">
+        <v>1</v>
+      </c>
+      <c r="D361" t="n">
+        <v>360</v>
+      </c>
+      <c r="E361" t="s">
+        <v>720</v>
+      </c>
+      <c r="F361" t="s">
+        <v>721</v>
+      </c>
+      <c r="G361" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="s">
+        <v>0</v>
+      </c>
+      <c r="C362" t="s">
+        <v>1</v>
+      </c>
+      <c r="D362" t="n">
+        <v>361</v>
+      </c>
+      <c r="E362" t="s">
+        <v>722</v>
+      </c>
+      <c r="F362" t="s">
+        <v>723</v>
+      </c>
+      <c r="G362" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="s">
+        <v>0</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1</v>
+      </c>
+      <c r="D363" t="n">
+        <v>362</v>
+      </c>
+      <c r="E363" t="s">
+        <v>724</v>
+      </c>
+      <c r="F363" t="s">
+        <v>725</v>
+      </c>
+      <c r="G363" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="s">
+        <v>0</v>
+      </c>
+      <c r="C364" t="s">
+        <v>1</v>
+      </c>
+      <c r="D364" t="n">
+        <v>363</v>
+      </c>
+      <c r="E364" t="s">
+        <v>726</v>
+      </c>
+      <c r="F364" t="s">
+        <v>727</v>
+      </c>
+      <c r="G364" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="s">
+        <v>0</v>
+      </c>
+      <c r="C365" t="s">
+        <v>1</v>
+      </c>
+      <c r="D365" t="n">
+        <v>364</v>
+      </c>
+      <c r="E365" t="s">
+        <v>728</v>
+      </c>
+      <c r="F365" t="s">
+        <v>729</v>
+      </c>
+      <c r="G365" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="s">
+        <v>0</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1</v>
+      </c>
+      <c r="D366" t="n">
+        <v>365</v>
+      </c>
+      <c r="E366" t="s">
+        <v>730</v>
+      </c>
+      <c r="F366" t="s">
+        <v>731</v>
+      </c>
+      <c r="G366" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="s">
+        <v>0</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1</v>
+      </c>
+      <c r="D367" t="n">
+        <v>366</v>
+      </c>
+      <c r="E367" t="s">
+        <v>732</v>
+      </c>
+      <c r="F367" t="s">
+        <v>733</v>
+      </c>
+      <c r="G367" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="s">
+        <v>0</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1</v>
+      </c>
+      <c r="D368" t="n">
+        <v>367</v>
+      </c>
+      <c r="E368" t="s">
+        <v>734</v>
+      </c>
+      <c r="F368" t="s">
+        <v>735</v>
+      </c>
+      <c r="G368" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="s">
+        <v>0</v>
+      </c>
+      <c r="C369" t="s">
+        <v>1</v>
+      </c>
+      <c r="D369" t="n">
+        <v>368</v>
+      </c>
+      <c r="E369" t="s">
+        <v>736</v>
+      </c>
+      <c r="F369" t="s">
+        <v>737</v>
+      </c>
+      <c r="G369" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="s">
+        <v>0</v>
+      </c>
+      <c r="C370" t="s">
+        <v>1</v>
+      </c>
+      <c r="D370" t="n">
+        <v>369</v>
+      </c>
+      <c r="E370" t="s">
+        <v>738</v>
+      </c>
+      <c r="F370" t="s">
+        <v>739</v>
+      </c>
+      <c r="G370" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="s">
+        <v>0</v>
+      </c>
+      <c r="C371" t="s">
+        <v>1</v>
+      </c>
+      <c r="D371" t="n">
+        <v>370</v>
+      </c>
+      <c r="E371" t="s">
+        <v>740</v>
+      </c>
+      <c r="F371" t="s">
+        <v>741</v>
+      </c>
+      <c r="G371" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="s">
+        <v>0</v>
+      </c>
+      <c r="C372" t="s">
+        <v>1</v>
+      </c>
+      <c r="D372" t="n">
+        <v>371</v>
+      </c>
+      <c r="E372" t="s">
+        <v>742</v>
+      </c>
+      <c r="F372" t="s">
+        <v>743</v>
+      </c>
+      <c r="G372" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="s">
+        <v>0</v>
+      </c>
+      <c r="C373" t="s">
+        <v>1</v>
+      </c>
+      <c r="D373" t="n">
+        <v>372</v>
+      </c>
+      <c r="E373" t="s">
+        <v>744</v>
+      </c>
+      <c r="F373" t="s">
+        <v>745</v>
+      </c>
+      <c r="G373" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="s">
+        <v>0</v>
+      </c>
+      <c r="C374" t="s">
+        <v>1</v>
+      </c>
+      <c r="D374" t="n">
+        <v>373</v>
+      </c>
+      <c r="E374" t="s">
+        <v>746</v>
+      </c>
+      <c r="F374" t="s">
+        <v>747</v>
+      </c>
+      <c r="G374" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="s">
+        <v>0</v>
+      </c>
+      <c r="C375" t="s">
+        <v>1</v>
+      </c>
+      <c r="D375" t="n">
+        <v>374</v>
+      </c>
+      <c r="E375" t="s">
+        <v>748</v>
+      </c>
+      <c r="F375" t="s">
+        <v>749</v>
+      </c>
+      <c r="G375" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="s">
+        <v>0</v>
+      </c>
+      <c r="C376" t="s">
+        <v>1</v>
+      </c>
+      <c r="D376" t="n">
+        <v>375</v>
+      </c>
+      <c r="E376" t="s">
+        <v>750</v>
+      </c>
+      <c r="F376" t="s">
+        <v>751</v>
+      </c>
+      <c r="G376" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="s">
+        <v>0</v>
+      </c>
+      <c r="C377" t="s">
+        <v>1</v>
+      </c>
+      <c r="D377" t="n">
+        <v>376</v>
+      </c>
+      <c r="E377" t="s">
+        <v>752</v>
+      </c>
+      <c r="F377" t="s">
+        <v>753</v>
+      </c>
+      <c r="G377" t="n">
         <v>1</v>
       </c>
     </row>

--- a/xlsx/_baidu_西游记_intext.xlsx
+++ b/xlsx/_baidu_西游记_intext.xlsx
@@ -20,7 +20,7 @@
     <t>西游记</t>
   </si>
   <si>
-    <t>https://baike.baidu.com/view/7213827.htm</t>
+    <t>https://baike.baidu.com/view/7214457.htm</t>
   </si>
   <si>
     <t>https://baike.baidu.com/item/%E7%99%BE%E5%BA%A6%E7%99%BE%E7%A7%91%EF%BC%9A%E5%A4%9A%E4%B9%89%E8%AF%8D</t>
@@ -3754,7 +3754,7 @@
         <v>97</v>
       </c>
       <c r="G49" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:7">
